--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>307274.5440681239</v>
+        <v>297940.6752990786</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24699857.08653222</v>
+        <v>24699857.08653221</v>
       </c>
     </row>
     <row r="8">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257.4557269828717</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>257.455726982872</v>
       </c>
       <c r="G11" t="n">
-        <v>199.6584222005525</v>
+        <v>257.455726982872</v>
       </c>
       <c r="H11" t="n">
-        <v>257.4557269828717</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.10858212596084</v>
+        <v>27.10858212596081</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>99.42138243528126</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>100.2370397652713</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>257.4557269828717</v>
+        <v>257.455726982872</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>70.41928759897283</v>
+        <v>51.14027291604273</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.1099950118801</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>91.86069278584546</v>
+        <v>91.86069278584544</v>
       </c>
       <c r="T12" t="n">
         <v>154.4827039177406</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>31.99354382872062</v>
       </c>
       <c r="G13" t="n">
-        <v>164.8986288277083</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.0721565279464</v>
       </c>
       <c r="I13" t="n">
-        <v>94.75543475034969</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.87806632431288</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>257.455726982872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>63.34367900361389</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>127.3456218912322</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>99.42138243528126</v>
       </c>
       <c r="T14" t="n">
-        <v>213.3556149981834</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.368743627847</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>257.4557269828717</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>174.5327172309451</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0.07827755378289396</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>105.1099950118801</v>
       </c>
       <c r="H15" t="n">
-        <v>62.21475471039616</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>60.70619286673572</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.87806632431287</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>172.690230165078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>234.2509660155943</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>257.4557269828717</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>257.4557269828717</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>23.40346880439989</v>
+        <v>223.4884956177381</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,67 +1843,67 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>257.4557269828719</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>229.8539876815383</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>254.368743627847</v>
+      </c>
+      <c r="V17" t="n">
         <v>257.4557269828719</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>257.4557269828719</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27.10858212596082</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>199.6584222005526</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>52.08951196399028</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.1099950118801</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>62.21475471039615</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>91.86069278584544</v>
       </c>
       <c r="T18" t="n">
-        <v>154.4827039177406</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>195.323999032971</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -1988,7 +1988,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>93.67502722695453</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.8986288277083</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0721565279464</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>94.75543475034968</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.87806632431287</v>
+        <v>53.87806632431286</v>
       </c>
       <c r="S19" t="n">
-        <v>172.690230165078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>234.2509660155943</v>
       </c>
       <c r="U19" t="n">
-        <v>160.2823427232841</v>
+        <v>228.8627477320411</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>257.4557269828718</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="G20" t="n">
-        <v>226.7670043265134</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>27.10858212596081</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>99.42138243528126</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>100.2370397652713</v>
       </c>
       <c r="W20" t="n">
-        <v>257.4557269828718</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>257.4557269828718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,22 +2162,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>20.56555210003697</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>8.863582855800368</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>105.1099950118801</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>62.21475471039616</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>91.86069278584544</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>154.4827039177406</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.323999032971</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>53.87806632431287</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>172.690230165078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>234.2509660155943</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>249.9717652937911</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="W22" t="n">
-        <v>257.4557269828718</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.89877226835837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>158.3792213040067</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>43.53096884374794</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>83.78946074098185</v>
       </c>
       <c r="T24" t="n">
-        <v>152.7312370348055</v>
+        <v>152.7312370348056</v>
       </c>
       <c r="U24" t="n">
         <v>195.2954114342289</v>
@@ -2478,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>101.7923573531517</v>
       </c>
       <c r="G25" t="n">
-        <v>6.509574822753998</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>337.738254161146</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2569,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>330.5374996119392</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T27" t="n">
         <v>152.7312370348056</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.69045068736645</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.7923573531517</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.6944259398202</v>
@@ -2803,7 +2803,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>154.2057527555971</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>402.3145745171349</v>
@@ -2854,13 +2854,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>170.9200187521505</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028007</v>
       </c>
       <c r="E30" t="n">
         <v>119.2878878475953</v>
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>55.85255598777715</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>46.24189359817991</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.30360297215677</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>3.995499011531587</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3113,7 +3113,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028012</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T33" t="n">
         <v>152.7312370348056</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>159.9285066601268</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.16787200195261</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>133.5628064712215</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>115.0373362329326</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.82163612020827</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>67.50448921919167</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>83.80004204681616</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
         <v>232.6944259398202</v>
@@ -3486,13 +3486,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>68.63896831180003</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>390.0907976156125</v>
       </c>
       <c r="H38" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>138.9000023092304</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
@@ -3647,7 +3647,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424958</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>77.14093310365188</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>166.3415337283568</v>
@@ -3720,13 +3720,13 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>157.2019447692765</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>34.12252132104579</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>328.5465926146923</v>
       </c>
     </row>
     <row r="42">
@@ -3827,7 +3827,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475949</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
         <v>107.8702810193205</v>
@@ -3887,7 +3887,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398079</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3915,10 +3915,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T43" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>78.00810021116779</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>257.2228765812928</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>338.4197384230765</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.6754748769767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193201</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
         <v>104.6754635109996</v>
@@ -4124,7 +4124,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398079</v>
       </c>
     </row>
     <row r="46">
@@ -4137,10 +4137,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4155,7 +4155,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>87.20063944703706</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.48142410970651</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>509.7103281681097</v>
+        <v>568.0914441098467</v>
       </c>
       <c r="C11" t="n">
-        <v>509.7103281681097</v>
+        <v>568.0914441098467</v>
       </c>
       <c r="D11" t="n">
-        <v>509.7103281681097</v>
+        <v>568.0914441098467</v>
       </c>
       <c r="E11" t="n">
-        <v>509.7103281681097</v>
+        <v>568.0914441098467</v>
       </c>
       <c r="F11" t="n">
-        <v>509.7103281681097</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="G11" t="n">
-        <v>308.0351542281576</v>
+        <v>47.97886434646896</v>
       </c>
       <c r="H11" t="n">
-        <v>47.97886434646898</v>
+        <v>47.97886434646896</v>
       </c>
       <c r="I11" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="J11" t="n">
-        <v>75.24433391563525</v>
+        <v>75.24433391563514</v>
       </c>
       <c r="K11" t="n">
-        <v>177.6964335646062</v>
+        <v>177.6964335646063</v>
       </c>
       <c r="L11" t="n">
-        <v>319.7425361659792</v>
+        <v>319.7425361659793</v>
       </c>
       <c r="M11" t="n">
-        <v>490.6223168287147</v>
+        <v>490.622316828715</v>
       </c>
       <c r="N11" t="n">
-        <v>666.1357033853111</v>
+        <v>666.1357033853116</v>
       </c>
       <c r="O11" t="n">
-        <v>826.4672365317996</v>
+        <v>826.4672365318003</v>
       </c>
       <c r="P11" t="n">
-        <v>949.3335853233325</v>
+        <v>949.3335853233333</v>
       </c>
       <c r="Q11" t="n">
         <v>1022.091133999476</v>
       </c>
       <c r="R11" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S11" t="n">
-        <v>1029.822907931487</v>
+        <v>929.3972691079714</v>
       </c>
       <c r="T11" t="n">
-        <v>1029.822907931487</v>
+        <v>929.3972691079714</v>
       </c>
       <c r="U11" t="n">
-        <v>1029.822907931487</v>
+        <v>929.3972691079714</v>
       </c>
       <c r="V11" t="n">
-        <v>1029.822907931487</v>
+        <v>828.1477339915357</v>
       </c>
       <c r="W11" t="n">
-        <v>1029.822907931487</v>
+        <v>828.1477339915357</v>
       </c>
       <c r="X11" t="n">
-        <v>769.7666180497984</v>
+        <v>568.0914441098467</v>
       </c>
       <c r="Y11" t="n">
-        <v>769.7666180497984</v>
+        <v>568.0914441098467</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>91.72705169294574</v>
+        <v>407.8777074463455</v>
       </c>
       <c r="C12" t="n">
-        <v>91.72705169294574</v>
+        <v>407.8777074463455</v>
       </c>
       <c r="D12" t="n">
-        <v>20.59645815862974</v>
+        <v>356.2208661170095</v>
       </c>
       <c r="E12" t="n">
-        <v>20.59645815862974</v>
+        <v>235.7280501093374</v>
       </c>
       <c r="F12" t="n">
-        <v>20.59645815862974</v>
+        <v>126.768170291842</v>
       </c>
       <c r="G12" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="H12" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="I12" t="n">
-        <v>20.59645815862974</v>
+        <v>27.87742117901184</v>
       </c>
       <c r="J12" t="n">
-        <v>255.3705284646876</v>
+        <v>255.3705284646878</v>
       </c>
       <c r="K12" t="n">
-        <v>329.6268858852857</v>
+        <v>329.6268858852861</v>
       </c>
       <c r="L12" t="n">
-        <v>448.2343514087935</v>
+        <v>448.2343514087939</v>
       </c>
       <c r="M12" t="n">
-        <v>594.4832009317631</v>
+        <v>594.4832009317637</v>
       </c>
       <c r="N12" t="n">
-        <v>750.4383235154498</v>
+        <v>750.4383235154505</v>
       </c>
       <c r="O12" t="n">
-        <v>884.1077753177552</v>
+        <v>884.107775317756</v>
       </c>
       <c r="P12" t="n">
-        <v>983.5594030676148</v>
+        <v>983.5594030676157</v>
       </c>
       <c r="Q12" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R12" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S12" t="n">
-        <v>937.0343293599259</v>
+        <v>937.0343293599268</v>
       </c>
       <c r="T12" t="n">
-        <v>780.9911940894808</v>
+        <v>780.9911940894817</v>
       </c>
       <c r="U12" t="n">
-        <v>780.9911940894808</v>
+        <v>780.9911940894817</v>
       </c>
       <c r="V12" t="n">
-        <v>780.9911940894808</v>
+        <v>567.2796670825155</v>
       </c>
       <c r="W12" t="n">
-        <v>567.7580258258096</v>
+        <v>567.2796670825155</v>
       </c>
       <c r="X12" t="n">
-        <v>391.4320439647024</v>
+        <v>567.2796670825155</v>
       </c>
       <c r="Y12" t="n">
-        <v>232.0300843285324</v>
+        <v>407.8777074463455</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>911.4171045699447</v>
+        <v>357.3312130445194</v>
       </c>
       <c r="C13" t="n">
-        <v>911.4171045699447</v>
+        <v>357.3312130445194</v>
       </c>
       <c r="D13" t="n">
-        <v>751.9224598928547</v>
+        <v>357.3312130445194</v>
       </c>
       <c r="E13" t="n">
-        <v>591.0116447611741</v>
+        <v>196.4203979128388</v>
       </c>
       <c r="F13" t="n">
-        <v>426.3805188717654</v>
+        <v>164.1036869747372</v>
       </c>
       <c r="G13" t="n">
-        <v>259.8162473286258</v>
+        <v>164.1036869747372</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3090185125183</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="I13" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="J13" t="n">
-        <v>82.22233627575093</v>
+        <v>82.22233627575099</v>
       </c>
       <c r="K13" t="n">
-        <v>108.6227642194264</v>
+        <v>314.9029578051407</v>
       </c>
       <c r="L13" t="n">
-        <v>154.5180707075123</v>
+        <v>360.7982642932266</v>
       </c>
       <c r="M13" t="n">
-        <v>204.2278410231345</v>
+        <v>410.5080346088488</v>
       </c>
       <c r="N13" t="n">
-        <v>459.1090107361775</v>
+        <v>462.2181156850743</v>
       </c>
       <c r="O13" t="n">
-        <v>713.9901804492205</v>
+        <v>653.1038716195586</v>
       </c>
       <c r="P13" t="n">
-        <v>968.8713501622635</v>
+        <v>907.9850413326019</v>
       </c>
       <c r="Q13" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R13" t="n">
-        <v>975.4006187150093</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S13" t="n">
-        <v>975.4006187150093</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T13" t="n">
-        <v>975.4006187150093</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="U13" t="n">
-        <v>975.4006187150093</v>
+        <v>769.766618049799</v>
       </c>
       <c r="V13" t="n">
-        <v>975.4006187150093</v>
+        <v>769.766618049799</v>
       </c>
       <c r="W13" t="n">
-        <v>911.4171045699447</v>
+        <v>769.766618049799</v>
       </c>
       <c r="X13" t="n">
-        <v>911.4171045699447</v>
+        <v>769.766618049799</v>
       </c>
       <c r="Y13" t="n">
-        <v>911.4171045699447</v>
+        <v>545.0309194385637</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.59645815862974</v>
+        <v>669.3409792262823</v>
       </c>
       <c r="C14" t="n">
-        <v>20.59645815862974</v>
+        <v>409.2846893445935</v>
       </c>
       <c r="D14" t="n">
-        <v>20.59645815862974</v>
+        <v>149.2283994629047</v>
       </c>
       <c r="E14" t="n">
-        <v>20.59645815862974</v>
+        <v>149.2283994629047</v>
       </c>
       <c r="F14" t="n">
-        <v>20.59645815862974</v>
+        <v>149.2283994629047</v>
       </c>
       <c r="G14" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="H14" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="I14" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="J14" t="n">
-        <v>75.24433391563501</v>
+        <v>75.2443339156351</v>
       </c>
       <c r="K14" t="n">
-        <v>177.6964335646059</v>
+        <v>177.6964335646061</v>
       </c>
       <c r="L14" t="n">
-        <v>319.7425361659787</v>
+        <v>319.7425361659791</v>
       </c>
       <c r="M14" t="n">
-        <v>490.6223168287143</v>
+        <v>490.6223168287146</v>
       </c>
       <c r="N14" t="n">
-        <v>666.1357033853108</v>
+        <v>666.1357033853112</v>
       </c>
       <c r="O14" t="n">
-        <v>826.4672365317995</v>
+        <v>826.4672365317998</v>
       </c>
       <c r="P14" t="n">
-        <v>949.3335853233324</v>
+        <v>949.333585323333</v>
       </c>
       <c r="Q14" t="n">
         <v>1022.091133999476</v>
       </c>
       <c r="R14" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S14" t="n">
-        <v>929.3972691079705</v>
+        <v>929.3972691079712</v>
       </c>
       <c r="T14" t="n">
-        <v>713.8865468875832</v>
+        <v>929.3972691079712</v>
       </c>
       <c r="U14" t="n">
-        <v>456.94842201097</v>
+        <v>929.3972691079712</v>
       </c>
       <c r="V14" t="n">
-        <v>196.8921321292814</v>
+        <v>929.3972691079712</v>
       </c>
       <c r="W14" t="n">
-        <v>20.59645815862974</v>
+        <v>929.3972691079712</v>
       </c>
       <c r="X14" t="n">
-        <v>20.59645815862974</v>
+        <v>929.3972691079712</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.59645815862974</v>
+        <v>929.3972691079712</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>419.0640526931671</v>
+        <v>126.8472385279863</v>
       </c>
       <c r="C15" t="n">
-        <v>419.0640526931671</v>
+        <v>126.8472385279863</v>
       </c>
       <c r="D15" t="n">
-        <v>419.0640526931671</v>
+        <v>126.8472385279863</v>
       </c>
       <c r="E15" t="n">
-        <v>298.5712366854951</v>
+        <v>126.768170291842</v>
       </c>
       <c r="F15" t="n">
-        <v>189.6113568679997</v>
+        <v>126.768170291842</v>
       </c>
       <c r="G15" t="n">
-        <v>83.43964473478748</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="H15" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="I15" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="J15" t="n">
-        <v>255.3705284646872</v>
+        <v>255.3705284646876</v>
       </c>
       <c r="K15" t="n">
-        <v>329.6268858852854</v>
+        <v>329.6268858852858</v>
       </c>
       <c r="L15" t="n">
-        <v>448.2343514087932</v>
+        <v>448.2343514087937</v>
       </c>
       <c r="M15" t="n">
-        <v>594.4832009317629</v>
+        <v>594.4832009317635</v>
       </c>
       <c r="N15" t="n">
-        <v>750.4383235154496</v>
+        <v>750.4383235154503</v>
       </c>
       <c r="O15" t="n">
-        <v>884.1077753177551</v>
+        <v>884.1077753177558</v>
       </c>
       <c r="P15" t="n">
-        <v>983.5594030676148</v>
+        <v>983.5594030676154</v>
       </c>
       <c r="Q15" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R15" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S15" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T15" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="U15" t="n">
-        <v>968.5035211974105</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="V15" t="n">
-        <v>754.7919941904443</v>
+        <v>816.1113809245214</v>
       </c>
       <c r="W15" t="n">
-        <v>754.7919941904443</v>
+        <v>602.8782126608502</v>
       </c>
       <c r="X15" t="n">
-        <v>578.4660123293371</v>
+        <v>426.552230799743</v>
       </c>
       <c r="Y15" t="n">
-        <v>419.0640526931671</v>
+        <v>267.150271163573</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.59645815862974</v>
+        <v>356.320956486322</v>
       </c>
       <c r="C16" t="n">
-        <v>20.59645815862974</v>
+        <v>185.2275840480385</v>
       </c>
       <c r="D16" t="n">
-        <v>20.59645815862974</v>
+        <v>185.2275840480385</v>
       </c>
       <c r="E16" t="n">
-        <v>20.59645815862974</v>
+        <v>185.2275840480385</v>
       </c>
       <c r="F16" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="G16" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="H16" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="I16" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="J16" t="n">
-        <v>82.22233627575095</v>
+        <v>82.22233627575098</v>
       </c>
       <c r="K16" t="n">
-        <v>108.6227642194265</v>
+        <v>314.9029578051407</v>
       </c>
       <c r="L16" t="n">
-        <v>320.4029879340499</v>
+        <v>569.7841275181838</v>
       </c>
       <c r="M16" t="n">
-        <v>575.2841576470929</v>
+        <v>619.493897833806</v>
       </c>
       <c r="N16" t="n">
-        <v>626.9942387233183</v>
+        <v>671.2039789100315</v>
       </c>
       <c r="O16" t="n">
-        <v>881.8754084363613</v>
+        <v>926.0851486230747</v>
       </c>
       <c r="P16" t="n">
-        <v>907.985041332601</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="Q16" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R16" t="n">
-        <v>975.4006187150093</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S16" t="n">
-        <v>800.9660427906881</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T16" t="n">
-        <v>564.3489054011989</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="U16" t="n">
-        <v>304.2926155195102</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="V16" t="n">
-        <v>44.23632563782155</v>
+        <v>769.7666180497988</v>
       </c>
       <c r="W16" t="n">
-        <v>44.23632563782155</v>
+        <v>769.7666180497988</v>
       </c>
       <c r="X16" t="n">
-        <v>20.59645815862974</v>
+        <v>544.0206628803663</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.59645815862974</v>
+        <v>544.0206628803663</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>568.0914441098465</v>
+        <v>512.8284931731856</v>
       </c>
       <c r="C17" t="n">
-        <v>568.0914441098465</v>
+        <v>512.8284931731856</v>
       </c>
       <c r="D17" t="n">
-        <v>568.0914441098465</v>
+        <v>252.7722032914968</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0351542281578</v>
+        <v>252.7722032914968</v>
       </c>
       <c r="F17" t="n">
-        <v>308.0351542281578</v>
+        <v>252.7722032914968</v>
       </c>
       <c r="G17" t="n">
-        <v>308.0351542281578</v>
+        <v>252.7722032914968</v>
       </c>
       <c r="H17" t="n">
-        <v>47.97886434646897</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="I17" t="n">
         <v>20.59645815862975</v>
@@ -5521,46 +5521,46 @@
         <v>177.696433564606</v>
       </c>
       <c r="L17" t="n">
-        <v>319.7425361659789</v>
+        <v>319.742536165979</v>
       </c>
       <c r="M17" t="n">
-        <v>490.6223168287145</v>
+        <v>490.6223168287146</v>
       </c>
       <c r="N17" t="n">
-        <v>666.135703385311</v>
+        <v>666.1357033853112</v>
       </c>
       <c r="O17" t="n">
-        <v>826.4672365317996</v>
+        <v>826.4672365317999</v>
       </c>
       <c r="P17" t="n">
-        <v>949.3335853233327</v>
+        <v>949.3335853233331</v>
       </c>
       <c r="Q17" t="n">
         <v>1022.091133999476</v>
       </c>
       <c r="R17" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S17" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T17" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="U17" t="n">
-        <v>828.1477339915352</v>
+        <v>772.8847830548744</v>
       </c>
       <c r="V17" t="n">
-        <v>828.1477339915352</v>
+        <v>512.8284931731856</v>
       </c>
       <c r="W17" t="n">
-        <v>828.1477339915352</v>
+        <v>512.8284931731856</v>
       </c>
       <c r="X17" t="n">
-        <v>828.1477339915352</v>
+        <v>512.8284931731856</v>
       </c>
       <c r="Y17" t="n">
-        <v>828.1477339915352</v>
+        <v>512.8284931731856</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.21212680912498</v>
+        <v>415.4683944661027</v>
       </c>
       <c r="C18" t="n">
-        <v>20.59645815862975</v>
+        <v>415.4683944661027</v>
       </c>
       <c r="D18" t="n">
-        <v>20.59645815862975</v>
+        <v>298.5712366854951</v>
       </c>
       <c r="E18" t="n">
-        <v>20.59645815862975</v>
+        <v>298.5712366854951</v>
       </c>
       <c r="F18" t="n">
-        <v>20.59645815862975</v>
+        <v>189.6113568679997</v>
       </c>
       <c r="G18" t="n">
-        <v>20.59645815862975</v>
+        <v>83.43964473478749</v>
       </c>
       <c r="H18" t="n">
         <v>20.59645815862975</v>
       </c>
       <c r="I18" t="n">
-        <v>27.87742117901182</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="J18" t="n">
-        <v>52.80409358687417</v>
+        <v>45.52313056649214</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0604510074724</v>
+        <v>119.7794879870904</v>
       </c>
       <c r="L18" t="n">
-        <v>245.6679165309802</v>
+        <v>238.3869535105983</v>
       </c>
       <c r="M18" t="n">
-        <v>500.5490862440233</v>
+        <v>384.635803033568</v>
       </c>
       <c r="N18" t="n">
-        <v>671.0773515919377</v>
+        <v>540.5909256172548</v>
       </c>
       <c r="O18" t="n">
-        <v>804.7468033942432</v>
+        <v>674.2603774195604</v>
       </c>
       <c r="P18" t="n">
-        <v>904.1984311441028</v>
+        <v>774.9417382184445</v>
       </c>
       <c r="Q18" t="n">
-        <v>950.4619360079749</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R18" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S18" t="n">
-        <v>1029.822907931487</v>
+        <v>937.0343293599266</v>
       </c>
       <c r="T18" t="n">
-        <v>873.7797726610424</v>
+        <v>937.0343293599266</v>
       </c>
       <c r="U18" t="n">
-        <v>676.4828039408696</v>
+        <v>937.0343293599266</v>
       </c>
       <c r="V18" t="n">
-        <v>462.7712769339034</v>
+        <v>723.3228023529604</v>
       </c>
       <c r="W18" t="n">
-        <v>249.5381086702322</v>
+        <v>510.0896340892891</v>
       </c>
       <c r="X18" t="n">
-        <v>73.21212680912498</v>
+        <v>415.4683944661027</v>
       </c>
       <c r="Y18" t="n">
-        <v>73.21212680912498</v>
+        <v>415.4683944661027</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.1036869747372</v>
+        <v>282.873290055658</v>
       </c>
       <c r="C19" t="n">
-        <v>164.1036869747372</v>
+        <v>282.873290055658</v>
       </c>
       <c r="D19" t="n">
-        <v>164.1036869747372</v>
+        <v>282.873290055658</v>
       </c>
       <c r="E19" t="n">
-        <v>164.1036869747372</v>
+        <v>282.873290055658</v>
       </c>
       <c r="F19" t="n">
-        <v>164.1036869747372</v>
+        <v>282.873290055658</v>
       </c>
       <c r="G19" t="n">
-        <v>164.1036869747372</v>
+        <v>116.3090185125183</v>
       </c>
       <c r="H19" t="n">
-        <v>20.59645815862975</v>
+        <v>116.3090185125183</v>
       </c>
       <c r="I19" t="n">
         <v>20.59645815862975</v>
@@ -5676,49 +5676,49 @@
         <v>20.59645815862975</v>
       </c>
       <c r="K19" t="n">
-        <v>199.5339375147074</v>
+        <v>163.7595474005105</v>
       </c>
       <c r="L19" t="n">
-        <v>454.4151072277506</v>
+        <v>418.6407171135536</v>
       </c>
       <c r="M19" t="n">
-        <v>709.2962769407937</v>
+        <v>468.3504874291759</v>
       </c>
       <c r="N19" t="n">
-        <v>964.1774466538369</v>
+        <v>520.0605685054013</v>
       </c>
       <c r="O19" t="n">
-        <v>1003.713275035248</v>
+        <v>774.9417382184445</v>
       </c>
       <c r="P19" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="Q19" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R19" t="n">
-        <v>975.4006187150097</v>
+        <v>975.40061871501</v>
       </c>
       <c r="S19" t="n">
-        <v>800.9660427906886</v>
+        <v>975.40061871501</v>
       </c>
       <c r="T19" t="n">
-        <v>564.3489054011993</v>
+        <v>738.7834813255207</v>
       </c>
       <c r="U19" t="n">
-        <v>402.4475491150538</v>
+        <v>507.6089886668933</v>
       </c>
       <c r="V19" t="n">
-        <v>402.4475491150538</v>
+        <v>507.6089886668933</v>
       </c>
       <c r="W19" t="n">
-        <v>402.4475491150538</v>
+        <v>507.6089886668933</v>
       </c>
       <c r="X19" t="n">
-        <v>164.1036869747372</v>
+        <v>507.6089886668933</v>
       </c>
       <c r="Y19" t="n">
-        <v>164.1036869747372</v>
+        <v>282.873290055658</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>249.654038286421</v>
+        <v>828.1477339915355</v>
       </c>
       <c r="C20" t="n">
-        <v>249.654038286421</v>
+        <v>828.1477339915355</v>
       </c>
       <c r="D20" t="n">
-        <v>249.654038286421</v>
+        <v>568.0914441098466</v>
       </c>
       <c r="E20" t="n">
-        <v>249.654038286421</v>
+        <v>568.0914441098466</v>
       </c>
       <c r="F20" t="n">
-        <v>249.654038286421</v>
+        <v>308.0351542281578</v>
       </c>
       <c r="G20" t="n">
-        <v>20.59645815862974</v>
+        <v>308.0351542281578</v>
       </c>
       <c r="H20" t="n">
-        <v>20.59645815862974</v>
+        <v>47.97886434646895</v>
       </c>
       <c r="I20" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="J20" t="n">
-        <v>75.24433391563501</v>
+        <v>75.2443339156348</v>
       </c>
       <c r="K20" t="n">
-        <v>177.6964335646059</v>
+        <v>177.6964335646058</v>
       </c>
       <c r="L20" t="n">
-        <v>319.7425361659791</v>
+        <v>319.7425361659788</v>
       </c>
       <c r="M20" t="n">
-        <v>490.6223168287145</v>
+        <v>490.6223168287146</v>
       </c>
       <c r="N20" t="n">
-        <v>666.135703385311</v>
+        <v>666.1357033853112</v>
       </c>
       <c r="O20" t="n">
-        <v>826.4672365317996</v>
+        <v>826.4672365317999</v>
       </c>
       <c r="P20" t="n">
-        <v>949.3335853233326</v>
+        <v>949.333585323333</v>
       </c>
       <c r="Q20" t="n">
         <v>1022.091133999476</v>
       </c>
       <c r="R20" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S20" t="n">
-        <v>1029.822907931487</v>
+        <v>929.3972691079712</v>
       </c>
       <c r="T20" t="n">
-        <v>1029.822907931487</v>
+        <v>929.3972691079712</v>
       </c>
       <c r="U20" t="n">
-        <v>1029.822907931487</v>
+        <v>929.3972691079712</v>
       </c>
       <c r="V20" t="n">
-        <v>1029.822907931487</v>
+        <v>828.1477339915355</v>
       </c>
       <c r="W20" t="n">
-        <v>769.7666180497985</v>
+        <v>828.1477339915355</v>
       </c>
       <c r="X20" t="n">
-        <v>769.7666180497985</v>
+        <v>828.1477339915355</v>
       </c>
       <c r="Y20" t="n">
-        <v>509.7103281681098</v>
+        <v>828.1477339915355</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>210.384641817532</v>
+        <v>163.544643405442</v>
       </c>
       <c r="C21" t="n">
-        <v>210.384641817532</v>
+        <v>29.5495721543877</v>
       </c>
       <c r="D21" t="n">
-        <v>189.6113568679997</v>
+        <v>29.5495721543877</v>
       </c>
       <c r="E21" t="n">
-        <v>189.6113568679997</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="F21" t="n">
-        <v>189.6113568679997</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="G21" t="n">
-        <v>83.43964473478749</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="H21" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="I21" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="J21" t="n">
-        <v>45.5231305664921</v>
+        <v>176.009556541175</v>
       </c>
       <c r="K21" t="n">
-        <v>119.7794879870903</v>
+        <v>250.2659139617733</v>
       </c>
       <c r="L21" t="n">
-        <v>238.3869535105981</v>
+        <v>368.8733794852811</v>
       </c>
       <c r="M21" t="n">
-        <v>384.6358030335678</v>
+        <v>515.1222290082509</v>
       </c>
       <c r="N21" t="n">
-        <v>540.5909256172546</v>
+        <v>671.0773515919377</v>
       </c>
       <c r="O21" t="n">
-        <v>674.2603774195601</v>
+        <v>804.7468033942433</v>
       </c>
       <c r="P21" t="n">
-        <v>904.1984311441025</v>
+        <v>904.198431144103</v>
       </c>
       <c r="Q21" t="n">
-        <v>950.4619360079747</v>
+        <v>950.4619360079752</v>
       </c>
       <c r="R21" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S21" t="n">
-        <v>937.0343293599261</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T21" t="n">
-        <v>937.0343293599261</v>
+        <v>873.7797726610427</v>
       </c>
       <c r="U21" t="n">
-        <v>937.0343293599261</v>
+        <v>676.4828039408699</v>
       </c>
       <c r="V21" t="n">
-        <v>723.3228023529599</v>
+        <v>676.4828039408699</v>
       </c>
       <c r="W21" t="n">
-        <v>510.0896340892887</v>
+        <v>463.2496356771986</v>
       </c>
       <c r="X21" t="n">
-        <v>510.0896340892887</v>
+        <v>463.2496356771986</v>
       </c>
       <c r="Y21" t="n">
-        <v>350.6876744531187</v>
+        <v>303.8476760410286</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="C22" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="D22" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="E22" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="F22" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="G22" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="H22" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="I22" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="J22" t="n">
-        <v>82.22233627575096</v>
+        <v>82.22233627575098</v>
       </c>
       <c r="K22" t="n">
-        <v>108.6227642194265</v>
+        <v>314.9029578051407</v>
       </c>
       <c r="L22" t="n">
-        <v>215.4696284767359</v>
+        <v>360.7982642932266</v>
       </c>
       <c r="M22" t="n">
-        <v>265.179398792358</v>
+        <v>615.6794340062698</v>
       </c>
       <c r="N22" t="n">
-        <v>520.0605685054011</v>
+        <v>667.3895150824953</v>
       </c>
       <c r="O22" t="n">
-        <v>774.9417382184441</v>
+        <v>706.9253434639062</v>
       </c>
       <c r="P22" t="n">
-        <v>1029.822907931487</v>
+        <v>907.9850413326017</v>
       </c>
       <c r="Q22" t="n">
-        <v>1029.822907931487</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R22" t="n">
-        <v>975.4006187150095</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S22" t="n">
-        <v>800.9660427906883</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T22" t="n">
-        <v>564.3489054011991</v>
+        <v>793.2057705419984</v>
       </c>
       <c r="U22" t="n">
-        <v>564.3489054011991</v>
+        <v>540.7090379220074</v>
       </c>
       <c r="V22" t="n">
-        <v>564.3489054011991</v>
+        <v>280.6527480403186</v>
       </c>
       <c r="W22" t="n">
-        <v>304.2926155195104</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="X22" t="n">
-        <v>65.94875337919376</v>
+        <v>20.59645815862975</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.59645815862974</v>
+        <v>20.59645815862975</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1686.69935248054</v>
+        <v>1016.968397149103</v>
       </c>
       <c r="C23" t="n">
-        <v>1686.69935248054</v>
+        <v>606.8438064623734</v>
       </c>
       <c r="D23" t="n">
-        <v>1282.235422573601</v>
+        <v>606.8438064623734</v>
       </c>
       <c r="E23" t="n">
-        <v>867.8952070904973</v>
+        <v>606.8438064623734</v>
       </c>
       <c r="F23" t="n">
-        <v>446.8647950441848</v>
+        <v>606.8438064623734</v>
       </c>
       <c r="G23" t="n">
-        <v>40.48643694606871</v>
+        <v>200.4654483642573</v>
       </c>
       <c r="H23" t="n">
         <v>40.48643694606871</v>
@@ -6016,25 +6016,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S23" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T23" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U23" t="n">
-        <v>1730.670028080285</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="V23" t="n">
-        <v>1730.670028080285</v>
+        <v>1417.611794980151</v>
       </c>
       <c r="W23" t="n">
-        <v>1730.670028080285</v>
+        <v>1417.611794980151</v>
       </c>
       <c r="X23" t="n">
-        <v>1686.69935248054</v>
+        <v>1016.968397149103</v>
       </c>
       <c r="Y23" t="n">
-        <v>1686.69935248054</v>
+        <v>1016.968397149103</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H24" t="n">
         <v>40.48643694606871</v>
@@ -6068,28 +6068,28 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J24" t="n">
-        <v>128.1484679399047</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K24" t="n">
-        <v>271.8704604711962</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L24" t="n">
-        <v>483.8830449928535</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M24" t="n">
-        <v>739.1312627518215</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N24" t="n">
-        <v>1006.970642510971</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O24" t="n">
-        <v>1242.99233126495</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P24" t="n">
-        <v>1505.20165549492</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R24" t="n">
         <v>2024.321847303436</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="25">
@@ -6126,22 +6126,22 @@
         <v>302.8016446061403</v>
       </c>
       <c r="C25" t="n">
-        <v>131.7082721678568</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="D25" t="n">
-        <v>131.7082721678568</v>
+        <v>143.3069999290503</v>
       </c>
       <c r="E25" t="n">
-        <v>131.7082721678568</v>
+        <v>143.3069999290503</v>
       </c>
       <c r="F25" t="n">
-        <v>131.7082721678568</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I25" t="n">
         <v>40.48643694606871</v>
@@ -6153,13 +6153,13 @@
         <v>402.1925459421785</v>
       </c>
       <c r="L25" t="n">
-        <v>815.6863250168145</v>
+        <v>501.7072137817915</v>
       </c>
       <c r="M25" t="n">
-        <v>1012.210811388058</v>
+        <v>952.9174321676721</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.145037964104</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O25" t="n">
         <v>1541.657620062865</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2024.321847303436</v>
+        <v>1282.235422573601</v>
       </c>
       <c r="C26" t="n">
-        <v>1614.197256616706</v>
+        <v>1282.235422573601</v>
       </c>
       <c r="D26" t="n">
-        <v>1209.733326709767</v>
+        <v>1282.235422573601</v>
       </c>
       <c r="E26" t="n">
-        <v>795.3931112266632</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="F26" t="n">
-        <v>374.3626991803508</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G26" t="n">
         <v>40.48643694606871</v>
@@ -6271,7 +6271,7 @@
         <v>2024.321847303436</v>
       </c>
       <c r="Y26" t="n">
-        <v>2024.321847303436</v>
+        <v>1623.385174251526</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606871</v>
@@ -6305,28 +6305,28 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J27" t="n">
-        <v>371.816871914538</v>
+        <v>128.1484679399047</v>
       </c>
       <c r="K27" t="n">
-        <v>515.5388644458295</v>
+        <v>271.8704604711962</v>
       </c>
       <c r="L27" t="n">
-        <v>727.5514489674867</v>
+        <v>483.8830449928535</v>
       </c>
       <c r="M27" t="n">
-        <v>982.7996667264548</v>
+        <v>739.1312627518215</v>
       </c>
       <c r="N27" t="n">
-        <v>1250.639046485604</v>
+        <v>1006.970642510971</v>
       </c>
       <c r="O27" t="n">
-        <v>1486.660735239583</v>
+        <v>1242.99233126495</v>
       </c>
       <c r="P27" t="n">
-        <v>1668.259056675766</v>
+        <v>1424.590652701133</v>
       </c>
       <c r="Q27" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R27" t="n">
         <v>2024.321847303436</v>
@@ -6335,7 +6335,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T27" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U27" t="n">
         <v>1588.14395921251</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>205.1175628354775</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="C28" t="n">
-        <v>205.1175628354775</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="D28" t="n">
-        <v>205.1175628354775</v>
+        <v>143.3069999290503</v>
       </c>
       <c r="E28" t="n">
-        <v>205.1175628354775</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F28" t="n">
         <v>40.48643694606871</v>
@@ -6387,49 +6387,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K28" t="n">
-        <v>195.9123523564644</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L28" t="n">
-        <v>609.4061314311003</v>
+        <v>501.7072137817915</v>
       </c>
       <c r="M28" t="n">
-        <v>715.6500003026954</v>
+        <v>952.9174321676721</v>
       </c>
       <c r="N28" t="n">
-        <v>1154.584226878742</v>
+        <v>1391.851658743718</v>
       </c>
       <c r="O28" t="n">
-        <v>1560.171568396243</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P28" t="n">
-        <v>1890.798104077128</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q28" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S28" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T28" t="n">
-        <v>1583.378488176654</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U28" t="n">
-        <v>1300.637836863246</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V28" t="n">
-        <v>1026.752091802768</v>
+        <v>1232.650576242862</v>
       </c>
       <c r="W28" t="n">
-        <v>747.682427311642</v>
+        <v>953.5809117517365</v>
       </c>
       <c r="X28" t="n">
-        <v>509.3385651713253</v>
+        <v>715.2370496114199</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.60286656009</v>
+        <v>490.5013510001846</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1016.968397149103</v>
+        <v>861.2050105272881</v>
       </c>
       <c r="C29" t="n">
-        <v>1016.968397149103</v>
+        <v>861.2050105272881</v>
       </c>
       <c r="D29" t="n">
-        <v>1016.968397149103</v>
+        <v>861.2050105272881</v>
       </c>
       <c r="E29" t="n">
-        <v>602.628181666</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="F29" t="n">
         <v>446.8647950441848</v>
@@ -6460,16 +6460,16 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K29" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L29" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M29" t="n">
         <v>953.2429319501304</v>
@@ -6487,28 +6487,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R29" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S29" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T29" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="U29" t="n">
         <v>1767.44934964367</v>
       </c>
       <c r="V29" t="n">
-        <v>1417.611794980151</v>
+        <v>1417.61179498015</v>
       </c>
       <c r="W29" t="n">
-        <v>1417.611794980151</v>
+        <v>1033.851494115319</v>
       </c>
       <c r="X29" t="n">
-        <v>1016.968397149103</v>
+        <v>1033.851494115319</v>
       </c>
       <c r="Y29" t="n">
-        <v>1016.968397149103</v>
+        <v>861.2050105272881</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090083</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579544</v>
+        <v>551.173218557954</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H30" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J30" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K30" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L30" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2318628767574</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N30" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O30" t="n">
-        <v>1467.092931389886</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.691252826069</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S30" t="n">
         <v>1939.686028373151</v>
@@ -6581,13 +6581,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W30" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807654</v>
+        <v>984.873282080765</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445954</v>
+        <v>825.471322444595</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.90316016604564</v>
+        <v>763.5690110982787</v>
       </c>
       <c r="C31" t="n">
-        <v>96.90316016604564</v>
+        <v>592.4756386599952</v>
       </c>
       <c r="D31" t="n">
-        <v>96.90316016604564</v>
+        <v>592.4756386599952</v>
       </c>
       <c r="E31" t="n">
-        <v>40.48643694606871</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="F31" t="n">
-        <v>40.48643694606871</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G31" t="n">
-        <v>40.48643694606871</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H31" t="n">
-        <v>40.48643694606871</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I31" t="n">
         <v>40.48643694606871</v>
@@ -6624,49 +6624,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K31" t="n">
-        <v>219.6034981877563</v>
+        <v>195.9123523564643</v>
       </c>
       <c r="L31" t="n">
-        <v>633.0972772623923</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M31" t="n">
-        <v>1084.307495648273</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N31" t="n">
-        <v>1523.241722224319</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O31" t="n">
-        <v>1928.829063741821</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P31" t="n">
-        <v>1998.558115949587</v>
+        <v>1974.866970118295</v>
       </c>
       <c r="Q31" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S31" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T31" t="n">
-        <v>1583.378488176654</v>
+        <v>1789.276972616748</v>
       </c>
       <c r="U31" t="n">
-        <v>1300.637836863246</v>
+        <v>1789.276972616748</v>
       </c>
       <c r="V31" t="n">
-        <v>1026.752091802768</v>
+        <v>1515.39122755627</v>
       </c>
       <c r="W31" t="n">
-        <v>747.682427311642</v>
+        <v>1236.321563065145</v>
       </c>
       <c r="X31" t="n">
-        <v>509.3385651713253</v>
+        <v>997.977700924828</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.60286656009</v>
+        <v>951.268717492323</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>781.5943036488841</v>
+        <v>859.2905823361115</v>
       </c>
       <c r="C32" t="n">
-        <v>781.5943036488841</v>
+        <v>859.2905823361115</v>
       </c>
       <c r="D32" t="n">
-        <v>377.1303737419446</v>
+        <v>454.826652429172</v>
       </c>
       <c r="E32" t="n">
-        <v>377.1303737419446</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F32" t="n">
-        <v>377.1303737419446</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G32" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H32" t="n">
         <v>40.48643694606871</v>
@@ -6700,19 +6700,19 @@
         <v>44.64574590746543</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K32" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L32" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N32" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O32" t="n">
         <v>1568.017893256777</v>
@@ -6727,25 +6727,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S32" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T32" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U32" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V32" t="n">
-        <v>1592.752156365283</v>
+        <v>1674.484292639916</v>
       </c>
       <c r="W32" t="n">
-        <v>1592.752156365283</v>
+        <v>1674.484292639916</v>
       </c>
       <c r="X32" t="n">
-        <v>1592.752156365283</v>
+        <v>1670.448435052511</v>
       </c>
       <c r="Y32" t="n">
-        <v>1191.815483313374</v>
+        <v>1269.511762000601</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D33" t="n">
         <v>434.2760607773472</v>
@@ -6776,28 +6776,28 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I33" t="n">
-        <v>62.57863487475244</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J33" t="n">
-        <v>371.816871914538</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K33" t="n">
-        <v>515.5388644458295</v>
+        <v>495.9710605961321</v>
       </c>
       <c r="L33" t="n">
-        <v>727.5514489674867</v>
+        <v>707.9836451177894</v>
       </c>
       <c r="M33" t="n">
-        <v>982.7996667264548</v>
+        <v>963.2318628767574</v>
       </c>
       <c r="N33" t="n">
-        <v>1250.639046485604</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O33" t="n">
-        <v>1486.660735239583</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P33" t="n">
-        <v>1668.259056675766</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q33" t="n">
         <v>2006.22131270252</v>
@@ -6821,10 +6821,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>757.1067645494038</v>
+        <v>373.1237555056924</v>
       </c>
       <c r="C34" t="n">
-        <v>757.1067645494038</v>
+        <v>202.0303830674089</v>
       </c>
       <c r="D34" t="n">
-        <v>757.1067645494038</v>
+        <v>202.0303830674089</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1959494177233</v>
+        <v>202.0303830674089</v>
       </c>
       <c r="F34" t="n">
-        <v>431.5648235283147</v>
+        <v>202.0303830674089</v>
       </c>
       <c r="G34" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H34" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I34" t="n">
         <v>40.48643694606871</v>
@@ -6861,22 +6861,22 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L34" t="n">
-        <v>590.8921830977225</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M34" t="n">
-        <v>697.1360519693176</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N34" t="n">
-        <v>1136.070278545364</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O34" t="n">
-        <v>1541.657620062865</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P34" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q34" t="n">
         <v>2024.321847303436</v>
@@ -6903,7 +6903,7 @@
         <v>785.5591605109721</v>
       </c>
       <c r="Y34" t="n">
-        <v>757.1067645494038</v>
+        <v>560.8234618997368</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>461.5168489923812</v>
+        <v>1285.981655162214</v>
       </c>
       <c r="C35" t="n">
-        <v>461.5168489923812</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D35" t="n">
-        <v>461.5168489923812</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E35" t="n">
-        <v>461.5168489923812</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F35" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G35" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H35" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746554</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492893</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752958</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879071</v>
       </c>
       <c r="M35" t="n">
-        <v>953.242931950131</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N35" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O35" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P35" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q35" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R35" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T35" t="n">
-        <v>1730.670028080286</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U35" t="n">
-        <v>1730.670028080286</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="V35" t="n">
-        <v>1380.832473416767</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="W35" t="n">
-        <v>997.0721725519352</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="X35" t="n">
-        <v>596.4287747208878</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="Y35" t="n">
-        <v>596.4287747208878</v>
+        <v>1696.202834826704</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C36" t="n">
-        <v>551.173218557955</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D36" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E36" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F36" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692776</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H36" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505506</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J36" t="n">
-        <v>108.5806640902074</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K36" t="n">
-        <v>252.3026566214988</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L36" t="n">
-        <v>464.3152411431561</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M36" t="n">
-        <v>719.5634589021241</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N36" t="n">
-        <v>987.4028386612733</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O36" t="n">
-        <v>1223.424527415253</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P36" t="n">
-        <v>1724.444184622853</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q36" t="n">
         <v>1918.251596225539</v>
@@ -7046,7 +7046,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T36" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U36" t="n">
         <v>1588.14395921251</v>
@@ -7058,10 +7058,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.7839665330969</v>
+        <v>359.5155919766112</v>
       </c>
       <c r="C37" t="n">
-        <v>755.6905940948134</v>
+        <v>359.5155919766112</v>
       </c>
       <c r="D37" t="n">
-        <v>596.1959494177233</v>
+        <v>359.5155919766112</v>
       </c>
       <c r="E37" t="n">
-        <v>596.1959494177233</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="F37" t="n">
-        <v>431.5648235283147</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G37" t="n">
-        <v>265.3685283624266</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H37" t="n">
         <v>125.1329440640648</v>
       </c>
       <c r="I37" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J37" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K37" t="n">
-        <v>303.672364228924</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L37" t="n">
-        <v>717.16614330356</v>
+        <v>506.8233170565552</v>
       </c>
       <c r="M37" t="n">
-        <v>823.4100121751551</v>
+        <v>958.0335354424358</v>
       </c>
       <c r="N37" t="n">
-        <v>1262.344238751201</v>
+        <v>1396.967762018482</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.931580268703</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P37" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q37" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T37" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.65958810401</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V37" t="n">
-        <v>1194.773843043532</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W37" t="n">
-        <v>1194.773843043532</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X37" t="n">
-        <v>1194.773843043532</v>
+        <v>547.2152983706555</v>
       </c>
       <c r="Y37" t="n">
-        <v>970.0381444322971</v>
+        <v>547.2152983706555</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1213.163994587036</v>
+        <v>838.9814755556471</v>
       </c>
       <c r="C38" t="n">
-        <v>803.0394039003064</v>
+        <v>838.9814755556471</v>
       </c>
       <c r="D38" t="n">
-        <v>733.707112676266</v>
+        <v>434.5175456487076</v>
       </c>
       <c r="E38" t="n">
-        <v>733.707112676266</v>
+        <v>434.5175456487076</v>
       </c>
       <c r="F38" t="n">
-        <v>733.707112676266</v>
+        <v>434.5175456487076</v>
       </c>
       <c r="G38" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H38" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746554</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492893</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752958</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879071</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N38" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O38" t="n">
         <v>1568.017893256777</v>
@@ -7213,13 +7213,13 @@
         <v>2024.321847303436</v>
       </c>
       <c r="W38" t="n">
-        <v>2024.321847303436</v>
+        <v>1640.561546438604</v>
       </c>
       <c r="X38" t="n">
-        <v>2024.321847303436</v>
+        <v>1239.918148607557</v>
       </c>
       <c r="Y38" t="n">
-        <v>1623.385174251526</v>
+        <v>838.9814755556471</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J39" t="n">
-        <v>128.1484679399047</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K39" t="n">
-        <v>271.8704604711962</v>
+        <v>664.3550098615119</v>
       </c>
       <c r="L39" t="n">
-        <v>483.8830449928535</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M39" t="n">
-        <v>739.1312627518215</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N39" t="n">
-        <v>1006.970642510971</v>
+        <v>1399.455191901286</v>
       </c>
       <c r="O39" t="n">
-        <v>1242.99233126495</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P39" t="n">
-        <v>1505.20165549492</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q39" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R39" t="n">
         <v>2024.321847303436</v>
@@ -7295,10 +7295,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>284.60286656009</v>
+        <v>767.2893218560068</v>
       </c>
       <c r="C40" t="n">
-        <v>206.6827321119568</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="D40" t="n">
-        <v>206.6827321119568</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="E40" t="n">
-        <v>206.6827321119568</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="F40" t="n">
-        <v>206.6827321119568</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G40" t="n">
-        <v>40.48643694606871</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H40" t="n">
-        <v>40.48643694606871</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I40" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J40" t="n">
-        <v>62.60916429909249</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>130.910988725128</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L40" t="n">
-        <v>245.925833583437</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M40" t="n">
-        <v>697.1360519693176</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N40" t="n">
-        <v>1136.070278545364</v>
+        <v>1373.796468531156</v>
       </c>
       <c r="O40" t="n">
         <v>1541.657620062865</v>
@@ -7356,28 +7356,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T40" t="n">
-        <v>1583.378488176654</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U40" t="n">
-        <v>1300.637836863246</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V40" t="n">
-        <v>1026.752091802768</v>
+        <v>1179.724726861286</v>
       </c>
       <c r="W40" t="n">
-        <v>747.682427311642</v>
+        <v>1179.724726861286</v>
       </c>
       <c r="X40" t="n">
-        <v>509.3385651713253</v>
+        <v>1179.724726861286</v>
       </c>
       <c r="Y40" t="n">
-        <v>284.60286656009</v>
+        <v>954.9890282500512</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.448848415796</v>
+        <v>1282.235422573601</v>
       </c>
       <c r="C41" t="n">
-        <v>910.3242577290661</v>
+        <v>1282.235422573601</v>
       </c>
       <c r="D41" t="n">
-        <v>910.3242577290661</v>
+        <v>1282.235422573601</v>
       </c>
       <c r="E41" t="n">
-        <v>495.9840422459628</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="F41" t="n">
-        <v>74.95363019965032</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G41" t="n">
         <v>40.48643694606871</v>
@@ -7411,13 +7411,13 @@
         <v>44.64574590746543</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K41" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
         <v>953.2429319501304</v>
@@ -7438,25 +7438,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S41" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T41" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U41" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V41" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W41" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="X41" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="Y41" t="n">
-        <v>1730.670028080285</v>
+        <v>1692.45660223809</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E42" t="n">
         <v>313.7832447696752</v>
@@ -7487,28 +7487,28 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I42" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J42" t="n">
-        <v>108.5806640902073</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K42" t="n">
-        <v>252.3026566214988</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L42" t="n">
-        <v>464.3152411431561</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M42" t="n">
-        <v>719.5634589021241</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N42" t="n">
-        <v>1220.583116109724</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O42" t="n">
-        <v>1456.604804863704</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P42" t="n">
-        <v>1817.075202091449</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q42" t="n">
         <v>1918.251596225539</v>
@@ -7535,7 +7535,7 @@
         <v>984.8732820807654</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.7839665330969</v>
+        <v>862.8126902484196</v>
       </c>
       <c r="C43" t="n">
-        <v>755.6905940948134</v>
+        <v>691.7193178101361</v>
       </c>
       <c r="D43" t="n">
-        <v>596.1959494177233</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="E43" t="n">
-        <v>596.1959494177233</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F43" t="n">
-        <v>431.5648235283147</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G43" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H43" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I43" t="n">
         <v>40.48643694606871</v>
@@ -7572,49 +7572,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L43" t="n">
-        <v>815.6863250168145</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M43" t="n">
-        <v>1266.896543402695</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N43" t="n">
-        <v>1373.796468531156</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O43" t="n">
-        <v>1541.657620062865</v>
+        <v>1590.063158491788</v>
       </c>
       <c r="P43" t="n">
-        <v>1872.28415574375</v>
+        <v>1920.689694172673</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T43" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.65958810401</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="V43" t="n">
-        <v>1389.863527284649</v>
+        <v>1347.369476315506</v>
       </c>
       <c r="W43" t="n">
-        <v>1389.863527284649</v>
+        <v>1087.548388859655</v>
       </c>
       <c r="X43" t="n">
-        <v>1151.519665144332</v>
+        <v>1087.548388859655</v>
       </c>
       <c r="Y43" t="n">
-        <v>926.7839665330969</v>
+        <v>862.8126902484196</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.48643694606871</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="C44" t="n">
-        <v>40.48643694606871</v>
+        <v>1614.197256616706</v>
       </c>
       <c r="D44" t="n">
-        <v>40.48643694606871</v>
+        <v>1209.733326709767</v>
       </c>
       <c r="E44" t="n">
-        <v>40.48643694606871</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="F44" t="n">
-        <v>40.48643694606871</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G44" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I44" t="n">
-        <v>44.6457459074656</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J44" t="n">
         <v>167.5334271492899</v>
@@ -7654,7 +7654,7 @@
         <v>372.2593058752964</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879076</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M44" t="n">
         <v>953.2429319501306</v>
@@ -7669,7 +7669,7 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R44" t="n">
         <v>2024.321847303436</v>
@@ -7681,19 +7681,19 @@
         <v>2024.321847303436</v>
       </c>
       <c r="U44" t="n">
-        <v>1767.44934964367</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V44" t="n">
-        <v>1417.611794980151</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W44" t="n">
-        <v>1033.851494115319</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="X44" t="n">
-        <v>633.208096284272</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="Y44" t="n">
-        <v>450.7076166105581</v>
+        <v>2024.321847303436</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F45" t="n">
         <v>204.8233649521798</v>
@@ -7721,34 +7721,34 @@
         <v>99.09057352692761</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I45" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J45" t="n">
-        <v>352.2490680648406</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K45" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L45" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M45" t="n">
-        <v>963.2318628767574</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N45" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O45" t="n">
-        <v>1467.092931389886</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P45" t="n">
-        <v>1648.691252826069</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R45" t="n">
         <v>2024.321847303436</v>
@@ -7772,7 +7772,7 @@
         <v>984.8732820807654</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.6014092264938</v>
+        <v>843.5536298696913</v>
       </c>
       <c r="C46" t="n">
-        <v>916.6014092264938</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="D46" t="n">
-        <v>757.1067645494038</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="E46" t="n">
-        <v>596.1959494177233</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="F46" t="n">
-        <v>431.5648235283147</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G46" t="n">
-        <v>265.3685283624266</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H46" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="J46" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L46" t="n">
-        <v>815.6863250168145</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M46" t="n">
-        <v>1266.896543402695</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N46" t="n">
-        <v>1577.418998169941</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.931580268702</v>
+        <v>1590.063158491788</v>
       </c>
       <c r="P46" t="n">
-        <v>1998.558115949587</v>
+        <v>1920.689694172673</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
@@ -7833,25 +7833,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="U46" t="n">
-        <v>1741.581195990027</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="V46" t="n">
-        <v>1467.695450929549</v>
+        <v>1582.414351002194</v>
       </c>
       <c r="W46" t="n">
-        <v>1188.625786438424</v>
+        <v>1494.332897015287</v>
       </c>
       <c r="X46" t="n">
-        <v>1188.625786438424</v>
+        <v>1255.989034874971</v>
       </c>
       <c r="Y46" t="n">
-        <v>1104.301115620538</v>
+        <v>1031.253336263736</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>34.81979492599199</v>
       </c>
       <c r="K2" t="n">
-        <v>31.42917993820346</v>
+        <v>31.42917993820345</v>
       </c>
       <c r="L2" t="n">
         <v>23.89450156601852</v>
       </c>
       <c r="M2" t="n">
-        <v>13.63155801534687</v>
+        <v>13.63155801534685</v>
       </c>
       <c r="N2" t="n">
         <v>11.96466381132231</v>
@@ -8063,7 +8063,7 @@
         <v>16.63032124124894</v>
       </c>
       <c r="L3" t="n">
-        <v>3.411388745407642</v>
+        <v>3.411388745407635</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.908981644977509</v>
+        <v>7.908981644977501</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.70843422154195</v>
+        <v>25.70843422154194</v>
       </c>
       <c r="R3" t="n">
         <v>43.92968946019</v>
@@ -8142,7 +8142,7 @@
         <v>28.6078221063498</v>
       </c>
       <c r="L4" t="n">
-        <v>24.37397299861713</v>
+        <v>24.37397299861712</v>
       </c>
       <c r="M4" t="n">
         <v>24.3660030835062</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>12.41095033264175</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>211.9670685840359</v>
+        <v>204.61256048264</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.695701569160384</v>
+        <v>8.695701569160356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8859,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>205.2233218553714</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>217.5205467996285</v>
+        <v>152.8787147000742</v>
       </c>
       <c r="P13" t="n">
-        <v>231.0823604210136</v>
+        <v>231.0823604210137</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.04813270320669</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>12.41095033264175</v>
+        <v>12.41095033264174</v>
       </c>
       <c r="J15" t="n">
-        <v>211.9670685840354</v>
+        <v>211.9670685840358</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.69570156916037</v>
+        <v>8.695701569160356</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>167.5605224510479</v>
+        <v>211.0968315403609</v>
       </c>
       <c r="M16" t="n">
-        <v>207.2438377751726</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>217.5205467996285</v>
+        <v>217.5205467996286</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>78.41224890118514</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>4.480902633284003</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>12.41095033264174</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>109.7296163536095</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>14.72034622649255</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.242154594974124</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.7249139890616</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>8.695701569160356</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.409581327490081</v>
+        <v>3.409581327490066</v>
       </c>
       <c r="K19" t="n">
-        <v>154.0778297094972</v>
+        <v>117.9420821193992</v>
       </c>
       <c r="L19" t="n">
-        <v>211.0968315403608</v>
+        <v>211.0968315403609</v>
       </c>
       <c r="M19" t="n">
-        <v>207.2438377751727</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>205.2233218553714</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>217.5205467996286</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>231.0823604210137</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.480902633284018</v>
+        <v>4.480902633284003</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>12.41095033264175</v>
+        <v>12.41095033264174</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>131.8044706814979</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>131.8044706814978</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>61.56723006992269</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>207.2438377751727</v>
       </c>
       <c r="N22" t="n">
-        <v>205.2233218553714</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>217.5205467996285</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>231.0823604210136</v>
+        <v>176.717237345915</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.480902633284018</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>81.42525534725922</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>403.8820839126365</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19254292893794</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
-        <v>335.3881832803894</v>
+        <v>77.02315277700107</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
         <v>263.5328115890082</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>239.1776382754177</v>
+        <v>396.4490397881976</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>318.2573327462026</v>
+        <v>187.4417569961849</v>
       </c>
       <c r="P28" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.848496840868</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>258.9430967094555</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>23.93045033463827</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>23.93045033463807</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>239.1776382754177</v>
+        <v>258.9430967094555</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.08582759184952</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
@@ -10524,10 +10524,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>23.93045033463832</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>322.6478139105228</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>93.56668431171315</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10746,13 +10746,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>108.8484968408683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>5.167781085619893</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
@@ -10761,10 +10761,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>81.42525534725922</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>403.8820839126365</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>15.65674446332932</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>78.12986811408976</v>
       </c>
       <c r="P40" t="n">
         <v>263.5328115890082</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>180.6788644359211</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11220,7 +11220,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11229,16 +11229,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>78.12986811408976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>78.65497149183281</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>258.9430967094555</v>
+        <v>150.3193388037198</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -11466,7 +11466,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>205.6793228674604</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>78.65497149183304</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.6632408849728</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23269,13 +23269,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>159.3643809429773</v>
       </c>
       <c r="G11" t="n">
-        <v>203.4682891250692</v>
+        <v>145.6709843427498</v>
       </c>
       <c r="H11" t="n">
-        <v>34.8354635628047</v>
+        <v>292.2911905456764</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>99.42138243528127</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.3556149981834</v>
@@ -23317,13 +23317,13 @@
         <v>254.368743627847</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>246.1021393516128</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>139.1812368698652</v>
+        <v>139.181236869865</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>45.30889860382865</v>
+        <v>64.58791328675875</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.1099950118801</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>62.21475471039616</v>
+        <v>62.21475471039615</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23396,13 +23396,13 @@
         <v>195.323999032971</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>130.991270801794</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.8986288277083</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>94.75543475034968</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>53.87806632431286</v>
       </c>
       <c r="S13" t="n">
         <v>172.690230165078</v>
@@ -23472,19 +23472,19 @@
         <v>234.2509660155943</v>
       </c>
       <c r="U13" t="n">
-        <v>279.933115524646</v>
+        <v>22.47738854177402</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>212.9352888426005</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>148.6632408849727</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>148.5676177969906</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>142.9635636249981</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>403.1267113256218</v>
+        <v>275.7810894343896</v>
       </c>
       <c r="H14" t="n">
         <v>292.2911905456764</v>
       </c>
       <c r="I14" t="n">
-        <v>27.10858212596082</v>
+        <v>27.10858212596081</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.3556149981834</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.368743627847</v>
       </c>
       <c r="V14" t="n">
-        <v>88.88345213401237</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>205.389980625238</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
@@ -23582,16 +23582,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2096102938124</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>62.21475471039615</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23630,13 +23630,13 @@
         <v>154.4827039177406</v>
       </c>
       <c r="U15" t="n">
-        <v>134.6178061662353</v>
+        <v>195.323999032971</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23664,7 +23664,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.8986288277083</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>53.87806632431286</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>172.690230165078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>234.2509660155943</v>
       </c>
       <c r="U16" t="n">
-        <v>22.47738854177425</v>
+        <v>279.933115524646</v>
       </c>
       <c r="V16" t="n">
-        <v>13.69116062700152</v>
+        <v>13.69116062700135</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>212.5569547145136</v>
+        <v>12.47192790117532</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>148.6632408849727</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>142.9635636249981</v>
       </c>
       <c r="E17" t="n">
-        <v>152.7410863454004</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -23749,10 +23749,10 @@
         <v>403.1267113256218</v>
       </c>
       <c r="H17" t="n">
-        <v>34.83546356280459</v>
+        <v>62.4372028641381</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>27.10858212596081</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>213.3556149981834</v>
       </c>
       <c r="U17" t="n">
-        <v>54.71032142729439</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>88.8834521340122</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23813,22 +23813,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>80.56560857455347</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.1099950118801</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.21475471039616</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>91.86069278584544</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.4827039177406</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.323999032971</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>80.88769481554159</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8986288277083</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.0721565279464</v>
       </c>
       <c r="I19" t="n">
-        <v>94.75543475034968</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>172.690230165078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>119.6507728013619</v>
+        <v>51.07036779260488</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23955,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>148.6632408849728</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>142.9635636249981</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>159.3643809429774</v>
       </c>
       <c r="G20" t="n">
-        <v>176.3597069991084</v>
+        <v>403.1267113256218</v>
       </c>
       <c r="H20" t="n">
-        <v>292.2911905456764</v>
+        <v>34.83546356280453</v>
       </c>
       <c r="I20" t="n">
-        <v>27.10858212596082</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>99.42138243528126</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>213.3556149981834</v>
@@ -24028,16 +24028,16 @@
         <v>254.368743627847</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>246.1021393516128</v>
       </c>
       <c r="W20" t="n">
-        <v>122.4669708733113</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>139.471579338519</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24050,22 +24050,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>95.16263410276451</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>110.4243049917949</v>
       </c>
       <c r="F21" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.1099950118801</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>62.21475471039615</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>91.86069278584544</v>
       </c>
       <c r="T21" t="n">
-        <v>154.4827039177406</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.323999032971</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>53.87806632431286</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>172.690230165078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.933115524646</v>
+        <v>29.96135023085489</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>13.69116062700135</v>
       </c>
       <c r="W22" t="n">
-        <v>18.82324086334256</v>
+        <v>18.82324086334245</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.5895693567646</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>125.5946731517536</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>353.1059950089891</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>61.19245727736292</v>
       </c>
       <c r="G25" t="n">
-        <v>158.0247573914752</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>68.3807137066986</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>71.77707490519572</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>283.9738944557603</v>
@@ -24511,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.1322586427375</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>57.50934962721199</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>164.5343322142292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>262.6143551702522</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>226.0072875692403</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>103.4491509925866</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>176.246448026943</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>353.0109715449781</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
         <v>209.8004861190321</v>
@@ -24982,7 +24982,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>392.6414648412054</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4.60582555410241</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3204696231703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.5561613966231</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3037726831681</v>
+        <v>139.2664364502355</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>143.0010732098957</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>91.79721776117205</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S37" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>331.78032229607</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25405,10 +25405,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>12.22377690152246</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>92.24150561024878</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25560,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>113.9449428405968</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>368.1920531960891</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>283.9738944557603</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
         <v>254.3037726831681</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>68.38071370669849</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S43" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>193.1387873987055</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>19.05609126492158</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>71.77707490519572</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>283.9738944557603</v>
@@ -25921,19 +25921,19 @@
         <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>216.2518314444141</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>189.0783283991773</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.0069175154164</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>324995.1092916749</v>
+        <v>324995.109291675</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>324995.1092916748</v>
+        <v>324995.109291675</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>324995.109291675</v>
+        <v>324995.1092916751</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>515743.6042025264</v>
+        <v>515743.6042025262</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>515743.6042025263</v>
+        <v>515743.6042025264</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>515743.6042025262</v>
+        <v>515743.6042025263</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>515743.6042025264</v>
+        <v>515743.6042025262</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>515743.6042025263</v>
+        <v>515743.6042025264</v>
       </c>
     </row>
   </sheetData>
@@ -26331,10 +26331,10 @@
         <v>134357.6009424686</v>
       </c>
       <c r="H2" t="n">
-        <v>134357.6009424685</v>
+        <v>134357.6009424686</v>
       </c>
       <c r="I2" t="n">
-        <v>211565.4642249998</v>
+        <v>211565.4642249997</v>
       </c>
       <c r="J2" t="n">
         <v>211565.4642249998</v>
@@ -26349,13 +26349,13 @@
         <v>211565.4642249999</v>
       </c>
       <c r="N2" t="n">
+        <v>211565.4642249998</v>
+      </c>
+      <c r="O2" t="n">
         <v>211565.4642249997</v>
       </c>
-      <c r="O2" t="n">
-        <v>211565.4642249999</v>
-      </c>
       <c r="P2" t="n">
-        <v>211565.4642249998</v>
+        <v>211565.4642249997</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>8029.134114982229</v>
       </c>
       <c r="E3" t="n">
-        <v>275433.2977674903</v>
+        <v>275433.2977674905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>218184.1617640374</v>
+        <v>218184.1617640373</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>64158.9969870396</v>
+        <v>64158.99698703964</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>11576.51132979726</v>
       </c>
       <c r="D4" t="n">
-        <v>9749.421845857492</v>
+        <v>9749.421845857494</v>
       </c>
       <c r="E4" t="n">
-        <v>11717.29354965273</v>
+        <v>11717.29354965274</v>
       </c>
       <c r="F4" t="n">
-        <v>11717.29354965273</v>
+        <v>11717.29354965274</v>
       </c>
       <c r="G4" t="n">
         <v>11717.29354965274</v>
@@ -26438,19 +26438,19 @@
         <v>11717.29354965273</v>
       </c>
       <c r="I4" t="n">
+        <v>22529.70278345436</v>
+      </c>
+      <c r="J4" t="n">
         <v>22529.70278345435</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>22529.70278345434</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22529.70278345435</v>
+      </c>
+      <c r="M4" t="n">
         <v>22529.70278345436</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22529.70278345435</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22529.70278345436</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22529.70278345437</v>
       </c>
       <c r="N4" t="n">
         <v>22529.70278345436</v>
@@ -26478,10 +26478,10 @@
         <v>36451.30153811922</v>
       </c>
       <c r="E5" t="n">
-        <v>23864.92397526579</v>
+        <v>23864.92397526581</v>
       </c>
       <c r="F5" t="n">
-        <v>23864.92397526579</v>
+        <v>23864.9239752658</v>
       </c>
       <c r="G5" t="n">
         <v>23864.9239752658</v>
@@ -26496,7 +26496,7 @@
         <v>43385.32273194157</v>
       </c>
       <c r="K5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="L5" t="n">
         <v>43385.32273194157</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104859.6452880908</v>
+        <v>-106235.9569830601</v>
       </c>
       <c r="C6" t="n">
-        <v>-1311.374869909567</v>
+        <v>-2687.039224627096</v>
       </c>
       <c r="D6" t="n">
-        <v>-891.8653375333015</v>
+        <v>-2266.69882899394</v>
       </c>
       <c r="E6" t="n">
-        <v>-176657.9143499402</v>
+        <v>-177646.9401805389</v>
       </c>
       <c r="F6" t="n">
-        <v>98775.38341755005</v>
+        <v>97786.35758695155</v>
       </c>
       <c r="G6" t="n">
-        <v>98775.3834175501</v>
+        <v>97786.35758695155</v>
       </c>
       <c r="H6" t="n">
-        <v>98775.38341755001</v>
+        <v>97786.35758695155</v>
       </c>
       <c r="I6" t="n">
-        <v>-72533.7230544335</v>
+        <v>-73155.09239321042</v>
       </c>
       <c r="J6" t="n">
-        <v>145650.4387096039</v>
+        <v>145029.069370827</v>
       </c>
       <c r="K6" t="n">
-        <v>145650.4387096039</v>
+        <v>145029.0693708269</v>
       </c>
       <c r="L6" t="n">
-        <v>145650.4387096039</v>
+        <v>145029.0693708269</v>
       </c>
       <c r="M6" t="n">
-        <v>81491.44172256431</v>
+        <v>80870.07238378737</v>
       </c>
       <c r="N6" t="n">
-        <v>145650.4387096038</v>
+        <v>145029.0693708269</v>
       </c>
       <c r="O6" t="n">
-        <v>145650.4387096039</v>
+        <v>145029.0693708269</v>
       </c>
       <c r="P6" t="n">
-        <v>145650.4387096039</v>
+        <v>145029.0693708269</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>129.5275934917073</v>
       </c>
       <c r="E3" t="n">
-        <v>376.6796226929903</v>
+        <v>376.6796226929905</v>
       </c>
       <c r="F3" t="n">
-        <v>376.6796226929904</v>
+        <v>376.6796226929905</v>
       </c>
       <c r="G3" t="n">
-        <v>376.6796226929904</v>
+        <v>376.6796226929905</v>
       </c>
       <c r="H3" t="n">
-        <v>376.6796226929904</v>
+        <v>376.6796226929905</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040984</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>257.4557269828717</v>
+        <v>257.455726982872</v>
       </c>
       <c r="F4" t="n">
-        <v>257.4557269828717</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="G4" t="n">
         <v>257.4557269828719</v>
       </c>
       <c r="H4" t="n">
-        <v>257.4557269828718</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="I4" t="n">
         <v>506.0804618258589</v>
@@ -26816,13 +26816,13 @@
         <v>506.0804618258589</v>
       </c>
       <c r="K4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="L4" t="n">
         <v>506.0804618258589</v>
       </c>
       <c r="M4" t="n">
-        <v>506.0804618258591</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="N4" t="n">
         <v>506.0804618258589</v>
@@ -26831,7 +26831,7 @@
         <v>506.0804618258589</v>
       </c>
       <c r="P4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.080461825859</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>9.375295260215537</v>
       </c>
       <c r="E3" t="n">
-        <v>247.152029201283</v>
+        <v>247.1520292012832</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>202.019031111108</v>
+        <v>202.0190311111079</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>257.4557269828717</v>
+        <v>257.455726982872</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>248.6247348429872</v>
+        <v>248.624734842987</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>257.4557269828719</v>
+        <v>257.455726982872</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>257.4557269828717</v>
+        <v>257.455726982872</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,7 +31044,7 @@
         <v>0.4536596581076707</v>
       </c>
       <c r="H2" t="n">
-        <v>4.646041973595183</v>
+        <v>4.646041973595184</v>
       </c>
       <c r="I2" t="n">
         <v>17.48971396919599</v>
@@ -31053,13 +31053,13 @@
         <v>38.50379640731595</v>
       </c>
       <c r="K2" t="n">
-        <v>57.70720973501366</v>
+        <v>57.70720973501367</v>
       </c>
       <c r="L2" t="n">
         <v>71.5908964968263</v>
       </c>
       <c r="M2" t="n">
-        <v>79.65866644169859</v>
+        <v>79.6586664416986</v>
       </c>
       <c r="N2" t="n">
         <v>80.94762694529702</v>
@@ -31080,7 +31080,7 @@
         <v>10.33776945912856</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98589515336633</v>
+        <v>1.985895153366329</v>
       </c>
       <c r="U2" t="n">
         <v>0.03629277264861365</v>
@@ -31135,7 +31135,7 @@
         <v>39.19546154336646</v>
       </c>
       <c r="L3" t="n">
-        <v>52.70313506544141</v>
+        <v>52.70313506544142</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -31147,10 +31147,10 @@
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>46.35065335782624</v>
+        <v>46.35065335782625</v>
       </c>
       <c r="Q3" t="n">
-        <v>30.98418428329677</v>
+        <v>30.98418428329678</v>
       </c>
       <c r="R3" t="n">
         <v>15.07050964521541</v>
@@ -31162,7 +31162,7 @@
         <v>0.9783694803583604</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.0159690339557948</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31536,7 +31536,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O8" t="n">
         <v>87.73444147909908</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.514289940474332</v>
+        <v>1.514289940474333</v>
       </c>
       <c r="H11" t="n">
-        <v>15.50822185288275</v>
+        <v>15.50822185288276</v>
       </c>
       <c r="I11" t="n">
-        <v>58.37966293013672</v>
+        <v>58.37966293013676</v>
       </c>
       <c r="J11" t="n">
-        <v>128.5234658353334</v>
+        <v>128.5234658353335</v>
       </c>
       <c r="K11" t="n">
-        <v>192.6233590156119</v>
+        <v>192.623359015612</v>
       </c>
       <c r="L11" t="n">
-        <v>238.9663097814033</v>
+        <v>238.9663097814034</v>
       </c>
       <c r="M11" t="n">
-        <v>265.8960635103137</v>
+        <v>265.8960635103139</v>
       </c>
       <c r="N11" t="n">
-        <v>270.1985398036864</v>
+        <v>270.1985398036866</v>
       </c>
       <c r="O11" t="n">
-        <v>255.1408192080947</v>
+        <v>255.1408192080949</v>
       </c>
       <c r="P11" t="n">
-        <v>217.7567863026347</v>
+        <v>217.7567863026348</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.5262778093976</v>
+        <v>163.5262778093977</v>
       </c>
       <c r="R11" t="n">
-        <v>95.12201547332081</v>
+        <v>95.12201547332087</v>
       </c>
       <c r="S11" t="n">
-        <v>34.50688201855887</v>
+        <v>34.50688201855889</v>
       </c>
       <c r="T11" t="n">
-        <v>6.62880421442639</v>
+        <v>6.628804214426394</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1211431952379465</v>
+        <v>0.1211431952379466</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8102165469245451</v>
+        <v>0.8102165469245457</v>
       </c>
       <c r="H12" t="n">
-        <v>7.82498612424495</v>
+        <v>7.824986124244955</v>
       </c>
       <c r="I12" t="n">
-        <v>27.89561356735825</v>
+        <v>27.89561356735826</v>
       </c>
       <c r="J12" t="n">
-        <v>76.54769577763872</v>
+        <v>76.54769577763878</v>
       </c>
       <c r="K12" t="n">
-        <v>130.8322044215832</v>
+        <v>130.8322044215833</v>
       </c>
       <c r="L12" t="n">
-        <v>175.920044541665</v>
+        <v>175.9200445416651</v>
       </c>
       <c r="M12" t="n">
-        <v>205.2903943676797</v>
+        <v>205.2903943676798</v>
       </c>
       <c r="N12" t="n">
-        <v>210.7238202459588</v>
+        <v>210.7238202459589</v>
       </c>
       <c r="O12" t="n">
-        <v>192.771127285157</v>
+        <v>192.7711272851571</v>
       </c>
       <c r="P12" t="n">
-        <v>154.7158246491265</v>
+        <v>154.7158246491266</v>
       </c>
       <c r="Q12" t="n">
         <v>103.423431498649</v>
       </c>
       <c r="R12" t="n">
-        <v>50.30449753624502</v>
+        <v>50.30449753624505</v>
       </c>
       <c r="S12" t="n">
-        <v>15.0494170009888</v>
+        <v>15.04941700098881</v>
       </c>
       <c r="T12" t="n">
-        <v>3.265741257121301</v>
+        <v>3.265741257121303</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05330372019240431</v>
+        <v>0.05330372019240434</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6792583360037528</v>
+        <v>0.6792583360037533</v>
       </c>
       <c r="H13" t="n">
-        <v>6.039224114651553</v>
+        <v>6.039224114651557</v>
       </c>
       <c r="I13" t="n">
-        <v>20.42715068636741</v>
+        <v>20.42715068636742</v>
       </c>
       <c r="J13" t="n">
-        <v>48.02356435546533</v>
+        <v>48.02356435546535</v>
       </c>
       <c r="K13" t="n">
-        <v>78.91746849207236</v>
+        <v>78.91746849207242</v>
       </c>
       <c r="L13" t="n">
-        <v>100.9871893364125</v>
+        <v>100.9871893364126</v>
       </c>
       <c r="M13" t="n">
         <v>106.4768317064792</v>
       </c>
       <c r="N13" t="n">
-        <v>103.9450506359198</v>
+        <v>103.9450506359199</v>
       </c>
       <c r="O13" t="n">
-        <v>96.01007825623958</v>
+        <v>96.01007825623964</v>
       </c>
       <c r="P13" t="n">
-        <v>82.15320820176295</v>
+        <v>82.15320820176301</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.87862302664153</v>
+        <v>56.87862302664156</v>
       </c>
       <c r="R13" t="n">
-        <v>30.54192481704146</v>
+        <v>30.54192481704148</v>
       </c>
       <c r="S13" t="n">
-        <v>11.83762027381085</v>
+        <v>11.83762027381086</v>
       </c>
       <c r="T13" t="n">
-        <v>2.90228561747058</v>
+        <v>2.902285617470581</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03705045469111384</v>
+        <v>0.03705045469111386</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.514289940474332</v>
+        <v>1.514289940474333</v>
       </c>
       <c r="H14" t="n">
         <v>15.50822185288276</v>
       </c>
       <c r="I14" t="n">
-        <v>58.37966293013675</v>
+        <v>58.37966293013676</v>
       </c>
       <c r="J14" t="n">
         <v>128.5234658353335</v>
@@ -32007,31 +32007,31 @@
         <v>238.9663097814034</v>
       </c>
       <c r="M14" t="n">
-        <v>265.8960635103138</v>
+        <v>265.8960635103139</v>
       </c>
       <c r="N14" t="n">
-        <v>270.1985398036865</v>
+        <v>270.1985398036866</v>
       </c>
       <c r="O14" t="n">
-        <v>255.1408192080948</v>
+        <v>255.1408192080949</v>
       </c>
       <c r="P14" t="n">
-        <v>217.7567863026347</v>
+        <v>217.7567863026348</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.5262778093976</v>
+        <v>163.5262778093977</v>
       </c>
       <c r="R14" t="n">
-        <v>95.12201547332084</v>
+        <v>95.12201547332087</v>
       </c>
       <c r="S14" t="n">
-        <v>34.50688201855888</v>
+        <v>34.50688201855889</v>
       </c>
       <c r="T14" t="n">
-        <v>6.628804214426392</v>
+        <v>6.628804214426394</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1211431952379465</v>
+        <v>0.1211431952379466</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8102165469245454</v>
+        <v>0.8102165469245457</v>
       </c>
       <c r="H15" t="n">
-        <v>7.824986124244953</v>
+        <v>7.824986124244955</v>
       </c>
       <c r="I15" t="n">
-        <v>27.89561356735825</v>
+        <v>27.89561356735826</v>
       </c>
       <c r="J15" t="n">
-        <v>76.54769577763875</v>
+        <v>76.54769577763878</v>
       </c>
       <c r="K15" t="n">
         <v>130.8322044215833</v>
       </c>
       <c r="L15" t="n">
-        <v>175.920044541665</v>
+        <v>175.9200445416651</v>
       </c>
       <c r="M15" t="n">
-        <v>205.2903943676797</v>
+        <v>205.2903943676798</v>
       </c>
       <c r="N15" t="n">
-        <v>210.7238202459588</v>
+        <v>210.7238202459589</v>
       </c>
       <c r="O15" t="n">
         <v>192.7711272851571</v>
@@ -32101,16 +32101,16 @@
         <v>103.423431498649</v>
       </c>
       <c r="R15" t="n">
-        <v>50.30449753624504</v>
+        <v>50.30449753624505</v>
       </c>
       <c r="S15" t="n">
         <v>15.04941700098881</v>
       </c>
       <c r="T15" t="n">
-        <v>3.265741257121302</v>
+        <v>3.265741257121303</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05330372019240432</v>
+        <v>0.05330372019240434</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6792583360037531</v>
+        <v>0.6792583360037533</v>
       </c>
       <c r="H16" t="n">
-        <v>6.039224114651555</v>
+        <v>6.039224114651557</v>
       </c>
       <c r="I16" t="n">
         <v>20.42715068636742</v>
       </c>
       <c r="J16" t="n">
-        <v>48.02356435546534</v>
+        <v>48.02356435546535</v>
       </c>
       <c r="K16" t="n">
-        <v>78.91746849207239</v>
+        <v>78.91746849207242</v>
       </c>
       <c r="L16" t="n">
-        <v>100.9871893364125</v>
+        <v>100.9871893364126</v>
       </c>
       <c r="M16" t="n">
         <v>106.4768317064792</v>
@@ -32171,25 +32171,25 @@
         <v>103.9450506359199</v>
       </c>
       <c r="O16" t="n">
-        <v>96.01007825623961</v>
+        <v>96.01007825623964</v>
       </c>
       <c r="P16" t="n">
-        <v>82.15320820176298</v>
+        <v>82.15320820176301</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.87862302664155</v>
+        <v>56.87862302664156</v>
       </c>
       <c r="R16" t="n">
-        <v>30.54192481704147</v>
+        <v>30.54192481704148</v>
       </c>
       <c r="S16" t="n">
         <v>11.83762027381086</v>
       </c>
       <c r="T16" t="n">
-        <v>2.90228561747058</v>
+        <v>2.902285617470581</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03705045469111385</v>
+        <v>0.03705045469111386</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.514289940474332</v>
+        <v>1.514289940474333</v>
       </c>
       <c r="H17" t="n">
         <v>15.50822185288276</v>
       </c>
       <c r="I17" t="n">
-        <v>58.37966293013675</v>
+        <v>58.37966293013676</v>
       </c>
       <c r="J17" t="n">
         <v>128.5234658353335</v>
@@ -32244,31 +32244,31 @@
         <v>238.9663097814034</v>
       </c>
       <c r="M17" t="n">
-        <v>265.8960635103138</v>
+        <v>265.8960635103139</v>
       </c>
       <c r="N17" t="n">
-        <v>270.1985398036865</v>
+        <v>270.1985398036866</v>
       </c>
       <c r="O17" t="n">
-        <v>255.1408192080948</v>
+        <v>255.1408192080949</v>
       </c>
       <c r="P17" t="n">
-        <v>217.7567863026347</v>
+        <v>217.7567863026348</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.5262778093976</v>
+        <v>163.5262778093977</v>
       </c>
       <c r="R17" t="n">
-        <v>95.12201547332084</v>
+        <v>95.12201547332087</v>
       </c>
       <c r="S17" t="n">
-        <v>34.50688201855888</v>
+        <v>34.50688201855889</v>
       </c>
       <c r="T17" t="n">
-        <v>6.628804214426392</v>
+        <v>6.628804214426394</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1211431952379465</v>
+        <v>0.1211431952379466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8102165469245454</v>
+        <v>0.8102165469245457</v>
       </c>
       <c r="H18" t="n">
-        <v>7.824986124244953</v>
+        <v>7.824986124244955</v>
       </c>
       <c r="I18" t="n">
-        <v>27.89561356735825</v>
+        <v>27.89561356735826</v>
       </c>
       <c r="J18" t="n">
-        <v>76.54769577763875</v>
+        <v>76.54769577763878</v>
       </c>
       <c r="K18" t="n">
         <v>130.8322044215833</v>
       </c>
       <c r="L18" t="n">
-        <v>175.920044541665</v>
+        <v>175.9200445416651</v>
       </c>
       <c r="M18" t="n">
-        <v>205.2903943676797</v>
+        <v>205.2903943676798</v>
       </c>
       <c r="N18" t="n">
-        <v>210.7238202459588</v>
+        <v>210.7238202459589</v>
       </c>
       <c r="O18" t="n">
         <v>192.7711272851571</v>
@@ -32338,16 +32338,16 @@
         <v>103.423431498649</v>
       </c>
       <c r="R18" t="n">
-        <v>50.30449753624504</v>
+        <v>50.30449753624505</v>
       </c>
       <c r="S18" t="n">
         <v>15.04941700098881</v>
       </c>
       <c r="T18" t="n">
-        <v>3.265741257121302</v>
+        <v>3.265741257121303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05330372019240432</v>
+        <v>0.05330372019240434</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6792583360037531</v>
+        <v>0.6792583360037533</v>
       </c>
       <c r="H19" t="n">
-        <v>6.039224114651555</v>
+        <v>6.039224114651557</v>
       </c>
       <c r="I19" t="n">
         <v>20.42715068636742</v>
       </c>
       <c r="J19" t="n">
-        <v>48.02356435546534</v>
+        <v>48.02356435546535</v>
       </c>
       <c r="K19" t="n">
-        <v>78.91746849207239</v>
+        <v>78.91746849207242</v>
       </c>
       <c r="L19" t="n">
-        <v>100.9871893364125</v>
+        <v>100.9871893364126</v>
       </c>
       <c r="M19" t="n">
         <v>106.4768317064792</v>
@@ -32408,25 +32408,25 @@
         <v>103.9450506359199</v>
       </c>
       <c r="O19" t="n">
-        <v>96.01007825623961</v>
+        <v>96.01007825623964</v>
       </c>
       <c r="P19" t="n">
-        <v>82.15320820176298</v>
+        <v>82.15320820176301</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.87862302664155</v>
+        <v>56.87862302664156</v>
       </c>
       <c r="R19" t="n">
-        <v>30.54192481704147</v>
+        <v>30.54192481704148</v>
       </c>
       <c r="S19" t="n">
         <v>11.83762027381086</v>
       </c>
       <c r="T19" t="n">
-        <v>2.90228561747058</v>
+        <v>2.902285617470581</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03705045469111385</v>
+        <v>0.03705045469111386</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.514289940474332</v>
+        <v>1.514289940474333</v>
       </c>
       <c r="H20" t="n">
         <v>15.50822185288276</v>
       </c>
       <c r="I20" t="n">
-        <v>58.37966293013675</v>
+        <v>58.37966293013676</v>
       </c>
       <c r="J20" t="n">
         <v>128.5234658353335</v>
@@ -32481,31 +32481,31 @@
         <v>238.9663097814034</v>
       </c>
       <c r="M20" t="n">
-        <v>265.8960635103138</v>
+        <v>265.8960635103139</v>
       </c>
       <c r="N20" t="n">
-        <v>270.1985398036865</v>
+        <v>270.1985398036866</v>
       </c>
       <c r="O20" t="n">
-        <v>255.1408192080948</v>
+        <v>255.1408192080949</v>
       </c>
       <c r="P20" t="n">
-        <v>217.7567863026347</v>
+        <v>217.7567863026348</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.5262778093976</v>
+        <v>163.5262778093977</v>
       </c>
       <c r="R20" t="n">
-        <v>95.12201547332084</v>
+        <v>95.12201547332087</v>
       </c>
       <c r="S20" t="n">
-        <v>34.50688201855888</v>
+        <v>34.50688201855889</v>
       </c>
       <c r="T20" t="n">
-        <v>6.628804214426392</v>
+        <v>6.628804214426394</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1211431952379465</v>
+        <v>0.1211431952379466</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8102165469245454</v>
+        <v>0.8102165469245457</v>
       </c>
       <c r="H21" t="n">
-        <v>7.824986124244953</v>
+        <v>7.824986124244955</v>
       </c>
       <c r="I21" t="n">
-        <v>27.89561356735825</v>
+        <v>27.89561356735826</v>
       </c>
       <c r="J21" t="n">
-        <v>76.54769577763875</v>
+        <v>76.54769577763878</v>
       </c>
       <c r="K21" t="n">
         <v>130.8322044215833</v>
       </c>
       <c r="L21" t="n">
-        <v>175.920044541665</v>
+        <v>175.9200445416651</v>
       </c>
       <c r="M21" t="n">
-        <v>205.2903943676797</v>
+        <v>205.2903943676798</v>
       </c>
       <c r="N21" t="n">
-        <v>210.7238202459588</v>
+        <v>210.7238202459589</v>
       </c>
       <c r="O21" t="n">
         <v>192.7711272851571</v>
@@ -32575,16 +32575,16 @@
         <v>103.423431498649</v>
       </c>
       <c r="R21" t="n">
-        <v>50.30449753624504</v>
+        <v>50.30449753624505</v>
       </c>
       <c r="S21" t="n">
         <v>15.04941700098881</v>
       </c>
       <c r="T21" t="n">
-        <v>3.265741257121302</v>
+        <v>3.265741257121303</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05330372019240432</v>
+        <v>0.05330372019240434</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6792583360037531</v>
+        <v>0.6792583360037533</v>
       </c>
       <c r="H22" t="n">
-        <v>6.039224114651555</v>
+        <v>6.039224114651557</v>
       </c>
       <c r="I22" t="n">
         <v>20.42715068636742</v>
       </c>
       <c r="J22" t="n">
-        <v>48.02356435546534</v>
+        <v>48.02356435546535</v>
       </c>
       <c r="K22" t="n">
-        <v>78.91746849207239</v>
+        <v>78.91746849207242</v>
       </c>
       <c r="L22" t="n">
-        <v>100.9871893364125</v>
+        <v>100.9871893364126</v>
       </c>
       <c r="M22" t="n">
         <v>106.4768317064792</v>
@@ -32645,25 +32645,25 @@
         <v>103.9450506359199</v>
       </c>
       <c r="O22" t="n">
-        <v>96.01007825623961</v>
+        <v>96.01007825623964</v>
       </c>
       <c r="P22" t="n">
-        <v>82.15320820176298</v>
+        <v>82.15320820176301</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.87862302664155</v>
+        <v>56.87862302664156</v>
       </c>
       <c r="R22" t="n">
-        <v>30.54192481704147</v>
+        <v>30.54192481704148</v>
       </c>
       <c r="S22" t="n">
         <v>11.83762027381086</v>
       </c>
       <c r="T22" t="n">
-        <v>2.90228561747058</v>
+        <v>2.902285617470581</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03705045469111385</v>
+        <v>0.03705045469111386</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>23.82551794279888</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932675</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J44" t="n">
         <v>197.4525622846456</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.19987450202547</v>
+        <v>55.19987450202555</v>
       </c>
       <c r="K11" t="n">
-        <v>103.4869693423948</v>
+        <v>103.4869693423949</v>
       </c>
       <c r="L11" t="n">
-        <v>143.4809117185584</v>
+        <v>143.4809117185586</v>
       </c>
       <c r="M11" t="n">
-        <v>172.6058390532683</v>
+        <v>172.6058390532684</v>
       </c>
       <c r="N11" t="n">
-        <v>177.2862490470671</v>
+        <v>177.2862490470673</v>
       </c>
       <c r="O11" t="n">
-        <v>161.9510435823116</v>
+        <v>161.9510435823118</v>
       </c>
       <c r="P11" t="n">
-        <v>124.1074230217505</v>
+        <v>124.1074230217506</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.49247341024554</v>
+        <v>73.49247341024565</v>
       </c>
       <c r="R11" t="n">
-        <v>7.8098726585973</v>
+        <v>7.809872658597357</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.354508101396039</v>
       </c>
       <c r="J12" t="n">
-        <v>237.1455255616746</v>
+        <v>229.7910174602788</v>
       </c>
       <c r="K12" t="n">
-        <v>75.00642163696784</v>
+        <v>75.00642163696793</v>
       </c>
       <c r="L12" t="n">
-        <v>119.8055207308159</v>
+        <v>119.805520730816</v>
       </c>
       <c r="M12" t="n">
-        <v>147.7261106292623</v>
+        <v>147.7261106292624</v>
       </c>
       <c r="N12" t="n">
-        <v>157.5304268522088</v>
+        <v>157.5304268522089</v>
       </c>
       <c r="O12" t="n">
-        <v>135.019648285157</v>
+        <v>135.0196482851571</v>
       </c>
       <c r="P12" t="n">
-        <v>100.4561896463228</v>
+        <v>100.4561896463229</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.73081299381025</v>
+        <v>46.7308129938103</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>62.24836173446585</v>
+        <v>62.24836173446588</v>
       </c>
       <c r="K13" t="n">
-        <v>26.66709893300553</v>
+        <v>235.0309308377674</v>
       </c>
       <c r="L13" t="n">
-        <v>46.35889544251101</v>
+        <v>46.35889544251106</v>
       </c>
       <c r="M13" t="n">
-        <v>50.21188920769913</v>
+        <v>50.2118892076992</v>
       </c>
       <c r="N13" t="n">
-        <v>257.4557269828717</v>
+        <v>52.23240512750044</v>
       </c>
       <c r="O13" t="n">
-        <v>257.4557269828717</v>
+        <v>192.8138948833175</v>
       </c>
       <c r="P13" t="n">
-        <v>257.4557269828717</v>
+        <v>257.455726982872</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.56723006992265</v>
+        <v>123.0685521200868</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.19987450202552</v>
+        <v>55.19987450202555</v>
       </c>
       <c r="K14" t="n">
         <v>103.4869693423949</v>
@@ -35655,22 +35655,22 @@
         <v>143.4809117185586</v>
       </c>
       <c r="M14" t="n">
-        <v>172.6058390532683</v>
+        <v>172.6058390532684</v>
       </c>
       <c r="N14" t="n">
-        <v>177.2862490470671</v>
+        <v>177.2862490470673</v>
       </c>
       <c r="O14" t="n">
-        <v>161.9510435823117</v>
+        <v>161.9510435823118</v>
       </c>
       <c r="P14" t="n">
-        <v>124.1074230217505</v>
+        <v>124.1074230217506</v>
       </c>
       <c r="Q14" t="n">
-        <v>73.49247341024559</v>
+        <v>73.49247341024565</v>
       </c>
       <c r="R14" t="n">
-        <v>7.809872658597328</v>
+        <v>7.809872658597357</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>237.1455255616742</v>
+        <v>237.1455255616746</v>
       </c>
       <c r="K15" t="n">
-        <v>75.0064216369679</v>
+        <v>75.00642163696793</v>
       </c>
       <c r="L15" t="n">
         <v>119.805520730816</v>
       </c>
       <c r="M15" t="n">
-        <v>147.7261106292623</v>
+        <v>147.7261106292624</v>
       </c>
       <c r="N15" t="n">
-        <v>157.5304268522088</v>
+        <v>157.5304268522089</v>
       </c>
       <c r="O15" t="n">
         <v>135.0196482851571</v>
       </c>
       <c r="P15" t="n">
-        <v>100.4561896463228</v>
+        <v>100.4561896463229</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.73081299381028</v>
+        <v>46.7308129938103</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>62.24836173446587</v>
+        <v>62.24836173446588</v>
       </c>
       <c r="K16" t="n">
-        <v>26.66709893300556</v>
+        <v>235.0309308377674</v>
       </c>
       <c r="L16" t="n">
-        <v>213.919417893559</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="M16" t="n">
-        <v>257.4557269828717</v>
+        <v>50.2118892076992</v>
       </c>
       <c r="N16" t="n">
-        <v>52.23240512750041</v>
+        <v>52.23240512750044</v>
       </c>
       <c r="O16" t="n">
-        <v>257.4557269828717</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="P16" t="n">
-        <v>26.3733665618582</v>
+        <v>104.7856154630434</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.0685521200868</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.19987450202552</v>
+        <v>55.19987450202555</v>
       </c>
       <c r="K17" t="n">
         <v>103.4869693423949</v>
@@ -35892,22 +35892,22 @@
         <v>143.4809117185586</v>
       </c>
       <c r="M17" t="n">
-        <v>172.6058390532683</v>
+        <v>172.6058390532684</v>
       </c>
       <c r="N17" t="n">
-        <v>177.2862490470671</v>
+        <v>177.2862490470673</v>
       </c>
       <c r="O17" t="n">
-        <v>161.9510435823117</v>
+        <v>161.9510435823118</v>
       </c>
       <c r="P17" t="n">
-        <v>124.1074230217505</v>
+        <v>124.1074230217506</v>
       </c>
       <c r="Q17" t="n">
-        <v>73.49247341024559</v>
+        <v>73.49247341024565</v>
       </c>
       <c r="R17" t="n">
-        <v>7.809872658597328</v>
+        <v>7.809872658597357</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.354508101396029</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.17845697763874</v>
+        <v>25.17845697763877</v>
       </c>
       <c r="K18" t="n">
-        <v>75.0064216369679</v>
+        <v>75.00642163696793</v>
       </c>
       <c r="L18" t="n">
         <v>119.805520730816</v>
       </c>
       <c r="M18" t="n">
-        <v>257.4557269828719</v>
+        <v>147.7261106292624</v>
       </c>
       <c r="N18" t="n">
-        <v>172.2507730787014</v>
+        <v>157.5304268522089</v>
       </c>
       <c r="O18" t="n">
         <v>135.0196482851571</v>
       </c>
       <c r="P18" t="n">
-        <v>100.4561896463228</v>
+        <v>101.698344241297</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.73081299381028</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="R18" t="n">
-        <v>80.16259790253787</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>180.7449286425027</v>
+        <v>144.6091810524048</v>
       </c>
       <c r="L19" t="n">
         <v>257.4557269828719</v>
       </c>
       <c r="M19" t="n">
+        <v>50.2118892076992</v>
+      </c>
+      <c r="N19" t="n">
+        <v>52.23240512750044</v>
+      </c>
+      <c r="O19" t="n">
         <v>257.4557269828719</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>257.4557269828719</v>
-      </c>
-      <c r="O19" t="n">
-        <v>39.93518018324328</v>
-      </c>
-      <c r="P19" t="n">
-        <v>26.3733665618582</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.19987450202552</v>
+        <v>55.19987450202555</v>
       </c>
       <c r="K20" t="n">
         <v>103.4869693423949</v>
@@ -36129,22 +36129,22 @@
         <v>143.4809117185586</v>
       </c>
       <c r="M20" t="n">
-        <v>172.6058390532683</v>
+        <v>172.6058390532684</v>
       </c>
       <c r="N20" t="n">
-        <v>177.2862490470671</v>
+        <v>177.2862490470673</v>
       </c>
       <c r="O20" t="n">
-        <v>161.9510435823117</v>
+        <v>161.9510435823118</v>
       </c>
       <c r="P20" t="n">
-        <v>124.1074230217505</v>
+        <v>124.1074230217506</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.49247341024559</v>
+        <v>73.49247341024565</v>
       </c>
       <c r="R20" t="n">
-        <v>7.809872658597328</v>
+        <v>7.809872658597357</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.17845697763874</v>
+        <v>156.9829276591366</v>
       </c>
       <c r="K21" t="n">
-        <v>75.0064216369679</v>
+        <v>75.00642163696793</v>
       </c>
       <c r="L21" t="n">
         <v>119.805520730816</v>
       </c>
       <c r="M21" t="n">
-        <v>147.7261106292623</v>
+        <v>147.7261106292624</v>
       </c>
       <c r="N21" t="n">
-        <v>157.5304268522088</v>
+        <v>157.5304268522089</v>
       </c>
       <c r="O21" t="n">
         <v>135.0196482851571</v>
       </c>
       <c r="P21" t="n">
-        <v>232.2606603278207</v>
+        <v>100.4561896463229</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.73081299381028</v>
+        <v>46.7308129938103</v>
       </c>
       <c r="R21" t="n">
         <v>80.16259790253787</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>62.24836173446587</v>
+        <v>62.24836173446588</v>
       </c>
       <c r="K22" t="n">
-        <v>26.66709893300556</v>
+        <v>235.0309308377674</v>
       </c>
       <c r="L22" t="n">
-        <v>107.9261255124337</v>
+        <v>46.35889544251106</v>
       </c>
       <c r="M22" t="n">
-        <v>50.21188920769916</v>
+        <v>257.4557269828719</v>
       </c>
       <c r="N22" t="n">
-        <v>257.4557269828718</v>
+        <v>52.23240512750044</v>
       </c>
       <c r="O22" t="n">
-        <v>257.4557269828718</v>
+        <v>39.93518018324331</v>
       </c>
       <c r="P22" t="n">
-        <v>257.4557269828718</v>
+        <v>203.0906039077732</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>123.0685521200868</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
         <v>145.1737298295874</v>
@@ -36454,13 +36454,13 @@
         <v>238.4057462161408</v>
       </c>
       <c r="P24" t="n">
-        <v>264.8579032625955</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q24" t="n">
-        <v>506.0804618258589</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R24" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L25" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M25" t="n">
-        <v>198.5095821931754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N25" t="n">
-        <v>443.3679056323699</v>
+        <v>185.0028751289815</v>
       </c>
       <c r="O25" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P25" t="n">
         <v>333.9661976574595</v>
@@ -36673,7 +36673,7 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J27" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K27" t="n">
         <v>145.1737298295874</v>
@@ -36694,10 +36694,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q27" t="n">
-        <v>341.3760161886401</v>
+        <v>498.6474177014201</v>
       </c>
       <c r="R27" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K28" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L28" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M28" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N28" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
-        <v>409.6841833510115</v>
+        <v>278.8686076009939</v>
       </c>
       <c r="P28" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.8724679053613</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J30" t="n">
         <v>312.361855595743</v>
@@ -36931,10 +36931,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q30" t="n">
-        <v>361.1414746226779</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R30" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K31" t="n">
-        <v>92.92219217911857</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L31" t="n">
         <v>417.6704839137738</v>
@@ -37010,7 +37010,7 @@
         <v>70.43338606845131</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.0239710644933</v>
+        <v>49.95442139913136</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J33" t="n">
         <v>312.361855595743</v>
@@ -37168,7 +37168,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q33" t="n">
-        <v>341.3760161886401</v>
+        <v>361.1414746226779</v>
       </c>
       <c r="R33" t="n">
         <v>18.28336828375327</v>
@@ -37229,13 +37229,13 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K34" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L34" t="n">
-        <v>190.6056940965091</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N34" t="n">
         <v>443.3679056323699</v>
@@ -37244,10 +37244,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P34" t="n">
-        <v>333.9661976574595</v>
+        <v>94.36383640308964</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K36" t="n">
         <v>145.1737298295874</v>
@@ -37402,10 +37402,10 @@
         <v>238.4057462161408</v>
       </c>
       <c r="P36" t="n">
-        <v>506.0804618258591</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.7650622249356</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R36" t="n">
         <v>107.1416677554515</v>
@@ -37466,13 +37466,13 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K37" t="n">
-        <v>177.8402386853487</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L37" t="n">
-        <v>417.6704839137738</v>
+        <v>105.6876475902795</v>
       </c>
       <c r="M37" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
         <v>443.3679056323699</v>
@@ -37481,10 +37481,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P37" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
-        <v>145.1737298295874</v>
+        <v>295.493068633307</v>
       </c>
       <c r="L39" t="n">
         <v>214.1541257794518</v>
@@ -37639,13 +37639,13 @@
         <v>238.4057462161408</v>
       </c>
       <c r="P39" t="n">
-        <v>264.8579032625955</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q39" t="n">
-        <v>506.0804618258589</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R39" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K40" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L40" t="n">
-        <v>116.1766109679889</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N40" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O40" t="n">
-        <v>409.6841833510115</v>
+        <v>169.5567187188988</v>
       </c>
       <c r="P40" t="n">
         <v>333.9661976574595</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J42" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K42" t="n">
         <v>145.1737298295874</v>
@@ -37870,16 +37870,16 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N42" t="n">
-        <v>506.0804618258589</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O42" t="n">
         <v>238.4057462161408</v>
       </c>
       <c r="P42" t="n">
-        <v>364.1115123512574</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.1983779132224</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R42" t="n">
         <v>107.1416677554515</v>
@@ -37940,7 +37940,7 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K43" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L43" t="n">
         <v>417.6704839137738</v>
@@ -37949,16 +37949,16 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N43" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O43" t="n">
-        <v>169.5567187188988</v>
+        <v>91.426850604809</v>
       </c>
       <c r="P43" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.5734258178641</v>
+        <v>104.6789425563261</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229173</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J44" t="n">
         <v>124.1289709513377</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J45" t="n">
         <v>312.361855595743</v>
@@ -38116,10 +38116,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q45" t="n">
-        <v>361.1414746226779</v>
+        <v>252.5177167169422</v>
       </c>
       <c r="R45" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L46" t="n">
         <v>417.6704839137738</v>
@@ -38186,7 +38186,7 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N46" t="n">
-        <v>313.6590452194409</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O46" t="n">
         <v>91.426850604809</v>
@@ -38195,7 +38195,7 @@
         <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.0239710644933</v>
+        <v>104.6789425563263</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
